--- a/IM/202512_Service_Count_Report.xlsx
+++ b/IM/202512_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$32</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>服務次數統計表        篩選月份：202512</t>
   </si>
@@ -158,6 +158,66 @@
     <t>O</t>
   </si>
   <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>THILF05410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重陽路三段126、128號一、二樓</t>
+  </si>
+  <si>
+    <t>三重力行店</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>新開門市裝機完成，使用中華電信</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>14:55:00</t>
+  </si>
+  <si>
+    <t>THILF0D390</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路518號</t>
+  </si>
+  <si>
+    <t>三重大有店</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L90</t>
+  </si>
+  <si>
+    <t>15:25:00</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>將脫落的彈簧勾回，目前可正常</t>
+  </si>
+  <si>
     <t>湯家瑋</t>
   </si>
   <si>
@@ -179,9 +239,6 @@
     <t>三重</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>pm</t>
   </si>
   <si>
@@ -254,9 +311,6 @@
     <t>五股4樓</t>
   </si>
   <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>T352800030</t>
   </si>
   <si>
@@ -302,16 +356,10 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>13:50:00</t>
   </si>
   <si>
     <t>THILF03878</t>
-  </si>
-  <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
   </si>
   <si>
     <t>新北市林口區湖北里湖子48號之1壹樓部份</t>
@@ -818,10 +866,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1049,7 +1097,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025120325</v>
+        <v>2025120404</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1058,10 +1106,10 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -1072,12 +1120,8 @@
       <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="6" t="s">
         <v>46</v>
       </c>
@@ -1091,16 +1135,14 @@
         <v>49</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3">
-        <v>1100</v>
-      </c>
+      <c r="Q4" s="3"/>
       <c r="R4" s="3">
-        <v>16500</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1121,7 +1163,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025120326</v>
+        <v>2025120430</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1130,44 +1172,38 @@
         <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7">
-        <v>1100</v>
-      </c>
+      <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1175,21 +1211,25 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z5" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="7"/>
+      <c r="AB5" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025120173</v>
+        <v>2025120415</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1198,48 +1238,44 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3">
-        <v>1132</v>
-      </c>
+      <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>64599</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1247,9 +1283,11 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA6" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28">
@@ -1257,7 +1295,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025120174</v>
+        <v>2025120325</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1266,19 +1304,19 @@
         <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1287,25 +1325,27 @@
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="R7" s="7">
-        <v>64599</v>
-      </c>
-      <c r="S7" s="7"/>
+        <v>16500</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1313,19 +1353,21 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="7"/>
+      <c r="AB7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025120327</v>
+        <v>2025120326</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1334,44 +1376,46 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>68</v>
+      </c>
       <c r="O8" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
       <c r="R8" s="3">
-        <v>54000</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>16500</v>
+      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1379,21 +1423,19 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025120328</v>
+        <v>2025120173</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1402,42 +1444,48 @@
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" s="8"/>
+        <v>74</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="7">
+        <v>1132</v>
+      </c>
       <c r="R9" s="7">
-        <v>54000</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>64599</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1445,11 +1493,9 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:28">
@@ -1457,7 +1503,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025120183</v>
+        <v>2025120174</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1466,46 +1512,46 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>1132</v>
+      </c>
       <c r="R10" s="3">
-        <v>118324</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>64599</v>
+      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1513,9 +1559,11 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
@@ -1523,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025120184</v>
+        <v>2025120327</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1532,44 +1580,44 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>118324</v>
-      </c>
-      <c r="S11" s="7"/>
+        <v>54000</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1577,19 +1625,21 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025120179</v>
+        <v>2025120328</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1598,46 +1648,42 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>5431</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>54000</v>
+      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1645,9 +1691,11 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA12" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
@@ -1655,7 +1703,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025120180</v>
+        <v>2025120183</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1664,44 +1712,46 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <v>5431</v>
-      </c>
-      <c r="S13" s="7"/>
+        <v>118324</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1709,11 +1759,9 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28">
@@ -1721,7 +1769,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025120177</v>
+        <v>2025120184</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1730,46 +1778,44 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>22407</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>118324</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1777,9 +1823,11 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
@@ -1787,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025120178</v>
+        <v>2025120180</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1796,34 +1844,34 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1831,7 +1879,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>22407</v>
+        <v>5431</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1841,19 +1889,21 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025120181</v>
+        <v>2025120179</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1862,34 +1912,34 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>49</v>
@@ -1897,7 +1947,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>56002</v>
+        <v>5431</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>41</v>
@@ -1909,7 +1959,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
@@ -1919,7 +1969,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025120182</v>
+        <v>2025120177</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1928,44 +1978,46 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>56002</v>
-      </c>
-      <c r="S17" s="7"/>
+        <v>22407</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -1973,11 +2025,9 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA17" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28">
@@ -1985,7 +2035,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025120176</v>
+        <v>2025120178</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -1994,34 +2044,34 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -2029,7 +2079,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>37849</v>
+        <v>22407</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2039,21 +2089,19 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025120175</v>
+        <v>2025120181</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2062,34 +2110,34 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -2097,7 +2145,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <v>37849</v>
+        <v>56002</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>41</v>
@@ -2109,7 +2157,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -2119,7 +2167,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025120171</v>
+        <v>2025120182</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2128,46 +2176,44 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>102273</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>56002</v>
+      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2175,9 +2221,11 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA20" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28">
@@ -2185,7 +2233,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025120172</v>
+        <v>2025120175</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2194,44 +2242,46 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>51</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>102273</v>
-      </c>
-      <c r="S21" s="7"/>
+        <v>37849</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2239,11 +2289,9 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA21" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA21" s="7"/>
       <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
@@ -2251,7 +2299,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025120102</v>
+        <v>2025120176</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2260,66 +2308,64 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L22" s="6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>37849</v>
+      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025120099</v>
+        <v>2025120171</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2328,30 +2374,34 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L23" s="8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
@@ -2359,7 +2409,7 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>0</v>
+        <v>102273</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>41</v>
@@ -2369,25 +2419,19 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
-      <c r="Y23" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025120063</v>
+        <v>2025120172</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2396,66 +2440,64 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L24" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>102273</v>
+      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-      <c r="Y24" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025120077</v>
+        <v>2025120102</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2464,30 +2506,30 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>49</v>
@@ -2509,7 +2551,7 @@
         <v>41</v>
       </c>
       <c r="Z25" s="8" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
@@ -2523,7 +2565,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025120061</v>
+        <v>2025120099</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2532,30 +2574,30 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>49</v>
@@ -2577,7 +2619,7 @@
         <v>41</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
@@ -2591,7 +2633,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025120069</v>
+        <v>2025120063</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2600,30 +2642,30 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>49</v>
@@ -2645,7 +2687,7 @@
         <v>41</v>
       </c>
       <c r="Z27" s="8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
@@ -2659,7 +2701,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025120073</v>
+        <v>2025120077</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2668,30 +2710,30 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="6" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>49</v>
@@ -2713,7 +2755,7 @@
         <v>41</v>
       </c>
       <c r="Z28" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
@@ -2723,37 +2765,241 @@
       </c>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB29" s="9">
-        <v>11</v>
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2025120061</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2025120069</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2025120073</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202512_Service_Count_Report.xlsx
+++ b/IM/202512_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$62</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
   <si>
     <t>服務次數統計表        篩選月份：202512</t>
   </si>
@@ -158,6 +158,152 @@
     <t>O</t>
   </si>
   <si>
+    <t>2025-12-03</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>13:15:00</t>
+  </si>
+  <si>
+    <t>T300800068</t>
+  </si>
+  <si>
+    <t>eS-3008A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">頂能企業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中山北路2段375號6樓(環保局第6分隊)</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>12:25:00</t>
+  </si>
+  <si>
+    <t>T301800088</t>
+  </si>
+  <si>
+    <t>eS-3018A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市淡水區中山北路2段73號2樓</t>
+  </si>
+  <si>
+    <t>14:34:00</t>
+  </si>
+  <si>
+    <t>14:49:00</t>
+  </si>
+  <si>
+    <t>T301800172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">智基科技開發股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區中山路123號3樓(淡水分校)</t>
+  </si>
+  <si>
+    <t>淡水</t>
+  </si>
+  <si>
+    <t>13:38:00</t>
+  </si>
+  <si>
+    <t>13:53:00</t>
+  </si>
+  <si>
+    <t>T301800176</t>
+  </si>
+  <si>
+    <t>新北市淡水區中山北路2段375號8樓(家暴防治中心)</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>T302800170</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市淡水區中正東路2段73號</t>
+  </si>
+  <si>
+    <t>14:20:00</t>
+  </si>
+  <si>
+    <t>14:35:00</t>
+  </si>
+  <si>
+    <t>T351500137</t>
+  </si>
+  <si>
+    <t>eS-3515AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>華南永昌綜合証券股份有限公司-淡水?</t>
+  </si>
+  <si>
+    <t>新北市淡水區中正路28號4樓(淡水)</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>THILF03796</t>
+  </si>
+  <si>
+    <t>一般件</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區進安街76號</t>
+  </si>
+  <si>
+    <t>三重進安店</t>
+  </si>
+  <si>
+    <t>維修</t>
+  </si>
+  <si>
+    <t>更換主機，無更換硬碟
+換下8185000635
+換上8185003687</t>
+  </si>
+  <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>11:10:00</t>
+  </si>
+  <si>
+    <t>PMQ4 L90</t>
+  </si>
+  <si>
     <t>2025-12-02</t>
   </si>
   <si>
@@ -170,18 +316,12 @@
     <t>THILF05410</t>
   </si>
   <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市三重區重陽路三段126、128號一、二樓</t>
   </si>
   <si>
     <t>三重力行店</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>新開門市裝機完成，使用中華電信</t>
   </si>
   <si>
@@ -206,21 +346,45 @@
     <t>15:25:00</t>
   </si>
   <si>
-    <t>一般件</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>維修</t>
-  </si>
-  <si>
     <t>將脫落的彈簧勾回，目前可正常</t>
   </si>
   <si>
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>T252000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區莊田路與信華三街交叉口(華固一莊)</t>
+  </si>
+  <si>
+    <t>華固一莊</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>T252000086</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街79巷旁工地</t>
+  </si>
+  <si>
+    <t>華固慕川</t>
+  </si>
+  <si>
     <t>16:30:00</t>
   </si>
   <si>
@@ -239,13 +403,13 @@
     <t>三重</t>
   </si>
   <si>
-    <t>pm</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
-    <t>09:30:00</t>
+    <t>T252000113</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街與元信一街交叉口</t>
+  </si>
+  <si>
+    <t>華固織幸</t>
   </si>
   <si>
     <t>T252000125</t>
@@ -260,21 +424,54 @@
     <t>林口文化2F放款部</t>
   </si>
   <si>
+    <t>T252000136</t>
+  </si>
+  <si>
+    <t>新北市三重區德厚街76號7樓</t>
+  </si>
+  <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>T301800171</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正區336-1號(新莊)</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>T301800174</t>
+  </si>
+  <si>
+    <t>新北市板橋區中山路1段10號5樓(板橋分校)</t>
+  </si>
+  <si>
+    <t>板橋</t>
+  </si>
+  <si>
     <t>17:30:00</t>
   </si>
   <si>
     <t>T302800012</t>
   </si>
   <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">捷旺宅不動產經紀有限公司 </t>
   </si>
   <si>
     <t>新北市三重區捷運路32號</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>T302800123</t>
+  </si>
+  <si>
+    <t>新北市三重區正義北路218號(三重分校)</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
@@ -293,6 +490,21 @@
     <t>五股生鮮物流</t>
   </si>
   <si>
+    <t>T352800011</t>
+  </si>
+  <si>
+    <t>eS-3528A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯實業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區水湳街74號2樓</t>
+  </si>
+  <si>
+    <t>蘆洲北二處</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
@@ -302,9 +514,6 @@
     <t>T352800029</t>
   </si>
   <si>
-    <t>eS-3528A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市五股區五工六路35號4樓(五股)</t>
   </si>
   <si>
@@ -341,9 +550,6 @@
     <t>五股運輸</t>
   </si>
   <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -368,12 +574,6 @@
     <t>林口清梅店</t>
   </si>
   <si>
-    <t>PMQ4 L90</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
     <t>THILF04057</t>
   </si>
   <si>
@@ -383,9 +583,6 @@
     <t>林口香澄店</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
     <t>10:55:00</t>
   </si>
   <si>
@@ -398,9 +595,6 @@
     <t>林口建安店</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>11:55:00</t>
   </si>
   <si>
@@ -413,9 +607,6 @@
     <t>林口童樂店</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>THILF04834</t>
   </si>
   <si>
@@ -423,9 +614,6 @@
   </si>
   <si>
     <t>林口大千苑店</t>
-  </si>
-  <si>
-    <t>11:10:00</t>
   </si>
   <si>
     <t>THILF0L519</t>
@@ -866,10 +1054,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1097,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025120404</v>
+        <v>2025120620</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1120,29 +1308,31 @@
       <c r="I4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L4" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="3" t="s">
         <v>49</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>31731</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1151,19 +1341,15 @@
       <c r="Z4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025120430</v>
+        <v>2025120621</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1178,32 +1364,34 @@
         <v>42</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L5" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="N5" s="8"/>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <v>0</v>
+        <v>31731</v>
       </c>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
@@ -1211,25 +1399,21 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
-      <c r="Y5" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB5" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025120415</v>
+        <v>2025120611</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1244,38 +1428,38 @@
         <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>53</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>239443</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1283,11 +1467,9 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28">
@@ -1295,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025120325</v>
+        <v>2025120612</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1304,48 +1486,42 @@
         <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="N7" s="8"/>
       <c r="O7" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7">
-        <v>1100</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>16500</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>239443</v>
+      </c>
+      <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
@@ -1353,21 +1529,19 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB7" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="7"/>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025120326</v>
+        <v>2025120689</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1376,46 +1550,46 @@
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>1100</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>16500</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>25886</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1423,19 +1597,21 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB8" s="3"/>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025120173</v>
+        <v>2025120690</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1444,48 +1620,44 @@
         <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
-      <c r="Q9" s="7">
-        <v>1132</v>
-      </c>
+      <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>64599</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>25886</v>
+      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1493,9 +1665,11 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA9" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB9" s="7"/>
     </row>
     <row r="10" spans="1:28">
@@ -1503,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025120174</v>
+        <v>2025120638</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1512,46 +1686,46 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <v>1132</v>
-      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>64599</v>
-      </c>
-      <c r="S10" s="3"/>
+        <v>39718</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1559,11 +1733,9 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
@@ -1571,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025120327</v>
+        <v>2025120639</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1580,44 +1752,44 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>54000</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>39718</v>
+      </c>
+      <c r="S11" s="7"/>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1625,21 +1797,19 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="7"/>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025120328</v>
+        <v>2025120606</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1648,42 +1818,46 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>54000</v>
-      </c>
-      <c r="S12" s="3"/>
+        <v>89329</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1691,11 +1865,9 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
@@ -1703,7 +1875,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025120183</v>
+        <v>2025120607</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1712,46 +1884,44 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <v>118324</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>89329</v>
+      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1759,9 +1929,11 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA13" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28">
@@ -1769,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025120184</v>
+        <v>2025120683</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1778,44 +1950,48 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>2512</v>
+      </c>
       <c r="R14" s="3">
-        <v>118324</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>321332</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1823,19 +1999,21 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025120180</v>
+        <v>2025120684</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1844,42 +2022,44 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="7">
+        <v>2512</v>
+      </c>
       <c r="R15" s="7">
-        <v>5431</v>
+        <v>321332</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1889,21 +2069,19 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025120179</v>
+        <v>2025120542</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1912,46 +2090,44 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="O16" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>5431</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1959,17 +2135,21 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025120177</v>
+        <v>2025120595</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1978,34 +2158,30 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>49</v>
@@ -2013,7 +2189,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>22407</v>
+        <v>0</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>41</v>
@@ -2025,9 +2201,11 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA17" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="AA17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB17" s="7"/>
     </row>
     <row r="18" spans="1:28">
@@ -2035,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025120178</v>
+        <v>2025120404</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2044,28 +2222,24 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M18" s="6" t="s">
         <v>94</v>
@@ -2074,34 +2248,38 @@
         <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>22407</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="3"/>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025120181</v>
+        <v>2025120430</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2110,34 +2288,30 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -2145,29 +2319,33 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <v>56002</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025120182</v>
+        <v>2025120415</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2176,42 +2354,42 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="L20" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>56002</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2221,7 +2399,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2233,7 +2411,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025120175</v>
+        <v>2025120646</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2242,42 +2420,46 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="7">
+        <v>6965</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>15589</v>
+      </c>
       <c r="R21" s="7">
-        <v>37849</v>
+        <v>20840</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>41</v>
@@ -2289,17 +2471,21 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="AA21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025120176</v>
+        <v>2025120647</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2308,42 +2494,46 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="P22" s="3">
+        <v>6965</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>15589</v>
+      </c>
       <c r="R22" s="3">
-        <v>37849</v>
+        <v>20840</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2353,7 +2543,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2365,7 +2555,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025120171</v>
+        <v>2025120644</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2374,42 +2564,46 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="P23" s="7">
+        <v>1921</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>2784</v>
+      </c>
       <c r="R23" s="7">
-        <v>102273</v>
+        <v>8923</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>41</v>
@@ -2421,17 +2615,21 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025120172</v>
+        <v>2025120645</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2440,42 +2638,46 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="P24" s="3">
+        <v>1921</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2784</v>
+      </c>
       <c r="R24" s="3">
-        <v>102273</v>
+        <v>8923</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2485,7 +2687,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -2497,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025120102</v>
+        <v>2025120325</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2506,38 +2708,44 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L25" s="8" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="7">
+        <v>1100</v>
+      </c>
       <c r="R25" s="7">
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>41</v>
@@ -2547,9 +2755,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
-      <c r="Y25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
         <v>112</v>
       </c>
@@ -2565,7 +2771,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025120099</v>
+        <v>2025120326</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2574,66 +2780,66 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L26" s="6" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3">
+        <v>1100</v>
+      </c>
       <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>16500</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-      <c r="Y26" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
         <v>112</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025120063</v>
+        <v>2025120648</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2642,38 +2848,46 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L27" s="8" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="P27" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>967</v>
+      </c>
       <c r="R27" s="7">
-        <v>0</v>
+        <v>4042</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>41</v>
@@ -2683,9 +2897,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
-      <c r="Y27" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
         <v>112</v>
       </c>
@@ -2701,7 +2913,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025120077</v>
+        <v>2025120649</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2710,66 +2922,68 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="M28" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="N28" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P28" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>967</v>
+      </c>
       <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>4042</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-      <c r="Y28" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
         <v>112</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025120061</v>
+        <v>2025120173</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2778,38 +2992,44 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="M29" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>130</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7">
+        <v>1132</v>
+      </c>
       <c r="R29" s="7">
-        <v>0</v>
+        <v>64599</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>41</v>
@@ -2819,25 +3039,19 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AA29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB29" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025120069</v>
+        <v>2025120174</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2846,66 +3060,66 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L30" s="6" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="3">
+        <v>1132</v>
+      </c>
       <c r="R30" s="3">
-        <v>0</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>64599</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-      <c r="Y30" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025120073</v>
+        <v>2025120675</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2914,38 +3128,44 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="H31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="N31" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="7">
+        <v>101</v>
+      </c>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>1564</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>41</v>
@@ -2955,51 +3175,2059 @@
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
-      <c r="Y31" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2025120676</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3">
+        <v>101</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1564</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2025120652</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AA31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="9" t="s">
+      <c r="O33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <v>49652</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2025120653</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
+        <v>49652</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2025120650</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7">
+        <v>81064</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2025120651</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <v>81064</v>
+      </c>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2025120327</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="AB32" s="9">
-        <v>13</v>
+      <c r="J37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
+        <v>54000</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2025120328</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" s="6"/>
+      <c r="O38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
+        <v>54000</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2025120668</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>4733</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2025120669</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <v>4733</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2025120183</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>118324</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2025120184</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <v>118324</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2025120670</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <v>8206</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2025120671</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>8206</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2025120179</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <v>5431</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2025120180</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>5431</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2025120178</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <v>22407</v>
+      </c>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2025120177</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <v>22407</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2025120181</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7">
+        <v>56002</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2025120182</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
+        <v>56002</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2025120175</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7">
+        <v>37849</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2025120176</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <v>37849</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2025120171</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <v>102273</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2025120172</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>102273</v>
+      </c>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2025120102</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7">
+        <v>0</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2025120099</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z56" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2025120063</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <v>0</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2025120077</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2025120061</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <v>0</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2025120069</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z60" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2025120073</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7">
+        <v>0</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z61" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB62" s="9">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202512_Service_Count_Report.xlsx
+++ b/IM/202512_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$79</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
   <si>
     <t>服務次數統計表        篩選月份：202512</t>
   </si>
@@ -179,10 +179,10 @@
     <t>新北市淡水區中山北路2段375號6樓(環保局第6分隊)</t>
   </si>
   <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
     <t>服務</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
   </si>
   <si>
     <t>12:10:00</t>
@@ -304,12 +304,36 @@
     <t>PMQ4 L90</t>
   </si>
   <si>
+    <t>2025-12-04</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>13:10:00</t>
+  </si>
+  <si>
+    <t>THILF04083</t>
+  </si>
+  <si>
+    <t>新北市三重區中央南路74號</t>
+  </si>
+  <si>
+    <t>三重中央南</t>
+  </si>
+  <si>
+    <t>裝潢回裝完成，使用中華電信</t>
+  </si>
+  <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
     <t>2025-12-02</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>13:30:00</t>
   </si>
   <si>
@@ -325,6 +349,12 @@
     <t>新開門市裝機完成，使用中華電信</t>
   </si>
   <si>
+    <t>14:45:00</t>
+  </si>
+  <si>
+    <t>更換錢櫃線頭</t>
+  </si>
+  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -424,12 +454,30 @@
     <t>林口文化2F放款部</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>碳粉</t>
+  </si>
+  <si>
     <t>T252000136</t>
   </si>
   <si>
     <t>新北市三重區德厚街76號7樓</t>
   </si>
   <si>
+    <t>T301800155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號F(三重湯城7F)</t>
+  </si>
+  <si>
+    <t>三重湯城7樓(黑)</t>
+  </si>
+  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -463,9 +511,6 @@
     <t>新北市三重區捷運路32號</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
     <t>T302800123</t>
   </si>
   <si>
@@ -490,6 +535,18 @@
     <t>五股生鮮物流</t>
   </si>
   <si>
+    <t>T352500148</t>
+  </si>
+  <si>
+    <t>eS-3525AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宏偉營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區光復路1段61巷26號2樓</t>
+  </si>
+  <si>
     <t>T352800011</t>
   </si>
   <si>
@@ -529,6 +586,9 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>13:40:00</t>
+  </si>
+  <si>
     <t>T352800031</t>
   </si>
   <si>
@@ -550,6 +610,18 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>T451800027</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓(客服)</t>
+  </si>
+  <si>
+    <t>台北客服4F申裝查核處(黑)</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -562,9 +634,6 @@
     <t>林口文化1F營業部</t>
   </si>
   <si>
-    <t>13:50:00</t>
-  </si>
-  <si>
     <t>THILF03878</t>
   </si>
   <si>
@@ -616,6 +685,18 @@
     <t>林口大千苑店</t>
   </si>
   <si>
+    <t>THILF05364</t>
+  </si>
+  <si>
+    <t>新北市林口區中正路100號一樓</t>
+  </si>
+  <si>
+    <t>林口舊街店</t>
+  </si>
+  <si>
+    <t xml:space="preserve">更換變壓器 </t>
+  </si>
+  <si>
     <t>THILF0L519</t>
   </si>
   <si>
@@ -638,6 +719,23 @@
   </si>
   <si>
     <t>林口顧家店</t>
+  </si>
+  <si>
+    <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>THILF0D161</t>
+  </si>
+  <si>
+    <t>新北市板橋區僑中一街125巷8弄2號</t>
+  </si>
+  <si>
+    <t>板橋僑中三</t>
+  </si>
+  <si>
+    <t>更換發票機 typc
+換上 8155004455
+換下 8155004438</t>
   </si>
   <si>
     <t>合計</t>
@@ -1054,10 +1152,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A62" sqref="A62"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1285,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025120620</v>
+        <v>2025120621</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1322,16 +1420,14 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
         <v>31731</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1339,17 +1435,21 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025120621</v>
+        <v>2025120620</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1386,14 +1486,16 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
         <v>31731</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1401,11 +1503,9 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AA5" s="7"/>
       <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28">
@@ -1450,7 +1550,7 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1467,7 +1567,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -1529,7 +1629,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>41</v>
@@ -1580,7 +1680,7 @@
         <v>61</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1597,7 +1697,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>41</v>
@@ -1665,7 +1765,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>41</v>
@@ -1716,7 +1816,7 @@
         <v>30</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1733,7 +1833,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1797,7 +1897,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -1809,7 +1909,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025120606</v>
+        <v>2025120607</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1848,16 +1948,14 @@
         <v>30</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
         <v>89329</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1865,17 +1963,21 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025120607</v>
+        <v>2025120606</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1914,14 +2016,16 @@
         <v>30</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
         <v>89329</v>
       </c>
-      <c r="S13" s="7"/>
+      <c r="S13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1929,11 +2033,9 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="AA13" s="7"/>
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28">
@@ -1980,7 +2082,7 @@
         <v>61</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -1999,7 +2101,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2069,7 +2171,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
@@ -2184,7 +2286,7 @@
         <v>84</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2213,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025120404</v>
+        <v>2025120859</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2248,7 +2350,7 @@
         <v>95</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2279,7 +2381,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025120430</v>
+        <v>2025120861</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2300,7 +2402,7 @@
         <v>98</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
@@ -2308,30 +2410,30 @@
         <v>82</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
-      <c r="Y19" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2345,7 +2447,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025120415</v>
+        <v>2025120404</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2357,34 +2459,30 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
         <v>82</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2392,7 +2490,9 @@
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2404,14 +2504,16 @@
       <c r="AA20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7">
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025120646</v>
+        <v>2025120703</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2420,50 +2522,44 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="I21" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P21" s="7">
-        <v>6965</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>15589</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>20840</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2471,7 +2567,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
@@ -2485,7 +2581,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025120647</v>
+        <v>2025120430</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2494,28 +2590,24 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>110</v>
@@ -2524,16 +2616,12 @@
         <v>111</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6965</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>15589</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>20840</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2541,21 +2629,25 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
+      <c r="Y22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z22" s="6" t="s">
         <v>112</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="3"/>
+      <c r="AB22" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025120644</v>
+        <v>2025120415</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2564,50 +2656,44 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="I23" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P23" s="7">
-        <v>1921</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>2784</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>8923</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2615,21 +2701,19 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025120645</v>
+        <v>2025120646</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2638,19 +2722,19 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>35</v>
@@ -2659,27 +2743,29 @@
         <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P24" s="3">
-        <v>1921</v>
+        <v>6965</v>
       </c>
       <c r="Q24" s="3">
-        <v>2784</v>
+        <v>15589</v>
       </c>
       <c r="R24" s="3">
-        <v>8923</v>
-      </c>
-      <c r="S24" s="3"/>
+        <v>20840</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
@@ -2687,19 +2773,21 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025120325</v>
+        <v>2025120647</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2708,19 +2796,19 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>35</v>
@@ -2729,27 +2817,27 @@
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="N25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>122</v>
-      </c>
       <c r="O25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P25" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P25" s="7">
+        <v>6965</v>
+      </c>
       <c r="Q25" s="7">
-        <v>1100</v>
+        <v>15589</v>
       </c>
       <c r="R25" s="7">
-        <v>16500</v>
-      </c>
-      <c r="S25" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>20840</v>
+      </c>
+      <c r="S25" s="7"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2757,21 +2845,19 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025120326</v>
+        <v>2025120644</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2780,19 +2866,19 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>35</v>
@@ -2801,25 +2887,29 @@
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1921</v>
+      </c>
       <c r="Q26" s="3">
-        <v>1100</v>
+        <v>2784</v>
       </c>
       <c r="R26" s="3">
-        <v>16500</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>8923</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -2827,19 +2917,21 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB26" s="3"/>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025120648</v>
+        <v>2025120645</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2848,19 +2940,19 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>35</v>
@@ -2869,29 +2961,27 @@
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7">
-        <v>164</v>
+        <v>1921</v>
       </c>
       <c r="Q27" s="7">
-        <v>967</v>
+        <v>2784</v>
       </c>
       <c r="R27" s="7">
-        <v>4042</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>8923</v>
+      </c>
+      <c r="S27" s="7"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -2899,21 +2989,19 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB27" s="7"/>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025120649</v>
+        <v>2025120325</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2922,19 +3010,19 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>35</v>
@@ -2943,27 +3031,27 @@
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P28" s="3">
-        <v>164</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="R28" s="3">
-        <v>4042</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>16500</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -2971,19 +3059,21 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB28" s="3"/>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025120173</v>
+        <v>2025120326</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2992,19 +3082,19 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>35</v>
@@ -3013,27 +3103,25 @@
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="R29" s="7">
-        <v>64599</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>16500</v>
+      </c>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3041,9 +3129,11 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA29" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="AA29" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28">
@@ -3051,7 +3141,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025120174</v>
+        <v>2025120648</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3060,19 +3150,19 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>35</v>
@@ -3081,25 +3171,29 @@
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P30" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="P30" s="3">
+        <v>164</v>
+      </c>
       <c r="Q30" s="3">
-        <v>1132</v>
+        <v>967</v>
       </c>
       <c r="R30" s="3">
-        <v>64599</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>4042</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3107,19 +3201,21 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="3"/>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025120675</v>
+        <v>2025120649</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3128,19 +3224,19 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>35</v>
@@ -3149,27 +3245,27 @@
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P31" s="7">
+        <v>164</v>
+      </c>
       <c r="Q31" s="7">
-        <v>101</v>
+        <v>967</v>
       </c>
       <c r="R31" s="7">
-        <v>1564</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>4042</v>
+      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3177,21 +3273,19 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025120676</v>
+        <v>2025120173</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3200,19 +3294,19 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>35</v>
@@ -3221,25 +3315,27 @@
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3">
-        <v>101</v>
+        <v>1132</v>
       </c>
       <c r="R32" s="3">
-        <v>1564</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>64599</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3247,11 +3343,9 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
@@ -3259,7 +3353,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025120652</v>
+        <v>2025120174</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3268,46 +3362,46 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="Q33" s="7">
+        <v>1132</v>
+      </c>
       <c r="R33" s="7">
-        <v>49652</v>
-      </c>
-      <c r="S33" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>64599</v>
+      </c>
+      <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3315,21 +3409,19 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025120653</v>
+        <v>2025120836</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3338,64 +3430,70 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="3">
+        <v>1132</v>
+      </c>
       <c r="R34" s="3">
-        <v>49652</v>
+        <v>64599</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
+      <c r="U34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3"/>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025120650</v>
+        <v>2025120675</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3404,42 +3502,44 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="Q35" s="7">
+        <v>101</v>
+      </c>
       <c r="R35" s="7">
-        <v>81064</v>
+        <v>1564</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>41</v>
@@ -3451,7 +3551,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3465,7 +3565,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025120651</v>
+        <v>2025120676</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3474,42 +3574,44 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="3">
+        <v>101</v>
+      </c>
       <c r="R36" s="3">
-        <v>81064</v>
+        <v>1564</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3519,7 +3621,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
@@ -3531,7 +3633,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025120327</v>
+        <v>2025120781</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3540,40 +3642,42 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="N37" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>147</v>
+      </c>
       <c r="O37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>54000</v>
+        <v>898</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>41</v>
@@ -3585,21 +3689,17 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB37" s="7">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025120328</v>
+        <v>2025120782</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3608,40 +3708,42 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N38" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="O38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>54000</v>
+        <v>898</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3651,7 +3753,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -3663,7 +3765,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025120668</v>
+        <v>2025120652</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3672,22 +3774,22 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H39" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="I39" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
@@ -3696,18 +3798,18 @@
         <v>59</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>4733</v>
+        <v>49652</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>41</v>
@@ -3719,7 +3821,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -3733,7 +3835,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025120669</v>
+        <v>2025120653</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3742,22 +3844,22 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="I40" s="3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
@@ -3766,10 +3868,10 @@
         <v>59</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
@@ -3777,7 +3879,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>4733</v>
+        <v>49652</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
@@ -3787,7 +3889,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
@@ -3799,7 +3901,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025120183</v>
+        <v>2025120650</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3808,42 +3910,42 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>118324</v>
+        <v>81064</v>
       </c>
       <c r="S41" s="7" t="s">
         <v>41</v>
@@ -3855,17 +3957,21 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025120184</v>
+        <v>2025120651</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3874,34 +3980,34 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>146</v>
+        <v>77</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>40</v>
@@ -3909,7 +4015,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>118324</v>
+        <v>81064</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -3919,7 +4025,7 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -3931,7 +4037,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025120670</v>
+        <v>2025120327</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3940,42 +4046,40 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N43" s="8"/>
       <c r="O43" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>8206</v>
+        <v>54000</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>41</v>
@@ -3987,17 +4091,21 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025120671</v>
+        <v>2025120328</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4006,42 +4114,40 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>156</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="N44" s="6"/>
       <c r="O44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>8206</v>
+        <v>54000</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -4051,7 +4157,7 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
@@ -4063,7 +4169,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025120179</v>
+        <v>2025120668</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4072,42 +4178,42 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>159</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="M45" s="8" t="s">
         <v>160</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>5431</v>
+        <v>4733</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>41</v>
@@ -4119,17 +4225,21 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA45" s="7"/>
-      <c r="AB45" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025120180</v>
+        <v>2025120669</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4138,34 +4248,34 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>159</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="M46" s="6" t="s">
         <v>160</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>40</v>
@@ -4173,7 +4283,7 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>5431</v>
+        <v>4733</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -4183,7 +4293,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>41</v>
@@ -4195,7 +4305,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025120178</v>
+        <v>2025120183</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4204,44 +4314,46 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>162</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>22407</v>
-      </c>
-      <c r="S47" s="7"/>
+        <v>118324</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4249,21 +4361,17 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA47" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025120177</v>
+        <v>2025120184</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4272,46 +4380,44 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>162</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>22407</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>118324</v>
+      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4319,9 +4425,11 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA48" s="3"/>
+        <v>122</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
@@ -4329,7 +4437,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025120181</v>
+        <v>2025120801</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4338,42 +4446,44 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="Q49" s="7">
+        <v>11378</v>
+      </c>
       <c r="R49" s="7">
-        <v>56002</v>
+        <v>19096</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>41</v>
@@ -4385,17 +4495,21 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025120182</v>
+        <v>2025120802</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4404,42 +4518,44 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="Q50" s="3">
+        <v>11378</v>
+      </c>
       <c r="R50" s="3">
-        <v>56002</v>
+        <v>19096</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4449,7 +4565,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -4461,7 +4577,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025120175</v>
+        <v>2025120670</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4470,42 +4586,42 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>37849</v>
+        <v>8206</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>41</v>
@@ -4517,7 +4633,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
@@ -4527,7 +4643,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025120176</v>
+        <v>2025120671</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4536,34 +4652,34 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
@@ -4571,7 +4687,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>37849</v>
+        <v>8206</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4581,7 +4697,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
@@ -4593,7 +4709,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025120171</v>
+        <v>2025120835</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4602,28 +4718,28 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="I53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="M53" s="8" t="s">
         <v>174</v>
@@ -4632,34 +4748,38 @@
         <v>175</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>102273</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>8206</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
+      <c r="U53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025120172</v>
+        <v>2025120179</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4668,44 +4788,46 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>102273</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>5431</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4713,11 +4835,9 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA54" s="3"/>
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
@@ -4725,7 +4845,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025120102</v>
+        <v>2025120180</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4734,66 +4854,64 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+        <v>178</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L55" s="8" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>0</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>5431</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025120099</v>
+        <v>2025120177</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4802,38 +4920,42 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L56" s="6" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>0</v>
+        <v>22407</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>41</v>
@@ -4843,25 +4965,19 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025120063</v>
+        <v>2025120178</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4870,66 +4986,64 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I57" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="O57" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>0</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>22407</v>
+      </c>
+      <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
-      <c r="Y57" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025120077</v>
+        <v>2025121000</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -4938,52 +5052,54 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+        <v>181</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L58" s="6" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>22407</v>
+      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
+      <c r="U58" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-      <c r="Y58" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
@@ -4997,7 +5113,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025120061</v>
+        <v>2025120181</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5006,38 +5122,42 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L59" s="8" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>0</v>
+        <v>56002</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>41</v>
@@ -5047,25 +5167,19 @@
       <c r="V59" s="7"/>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
-      <c r="Y59" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA59" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB59" s="7">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025120069</v>
+        <v>2025120182</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5074,66 +5188,64 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L60" s="6" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>56002</v>
+      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-      <c r="Y60" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>197</v>
+        <v>122</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB60" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025120073</v>
+        <v>2025120999</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5142,92 +5254,1242 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+        <v>185</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L61" s="8" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>0</v>
-      </c>
-      <c r="S61" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>56002</v>
+      </c>
+      <c r="S61" s="7"/>
       <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
+      <c r="U61" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
-      <c r="Y61" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2025120175</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
+        <v>37849</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2025120176</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <v>37849</v>
+      </c>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2025121001</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
+        <v>37849</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2025120779</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <v>36</v>
+      </c>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2025120780</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <v>36</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" s="3"/>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2025120171</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="AA61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="10"/>
-      <c r="AA62" s="9" t="s">
+      <c r="K67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <v>102273</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2025120172</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <v>102273</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2025120834</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <v>102273</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2025120102</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N70" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AB62" s="9">
-        <v>23</v>
+      <c r="O70" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z70" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2025120099</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <v>0</v>
+      </c>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2025120063</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2025120077</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7">
+        <v>0</v>
+      </c>
+      <c r="S73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z73" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2025120061</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z74" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2025120869</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <v>0</v>
+      </c>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2025120069</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z76" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2025120073</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z77" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA77" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2025120682</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB79" s="9">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202512_Service_Count_Report.xlsx
+++ b/IM/202512_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$122</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>服務次數統計表        篩選月份：202512</t>
   </si>
@@ -179,12 +179,12 @@
     <t>新北市淡水區中山北路2段375號6樓(環保局第6分隊)</t>
   </si>
   <si>
+    <t>服務</t>
+  </si>
+  <si>
     <t>PM抄表</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>12:10:00</t>
   </si>
   <si>
@@ -230,6 +230,45 @@
     <t>新北市淡水區中山北路2段375號8樓(家暴防治中心)</t>
   </si>
   <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:48:00</t>
+  </si>
+  <si>
+    <t>T302800001</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>財團法人台北國際社區青年育樂活動中心基金會</t>
+  </si>
+  <si>
+    <t>台北市士林區天玉街26-1號</t>
+  </si>
+  <si>
+    <t>天玉街</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>10:25:00</t>
+  </si>
+  <si>
+    <t>T302800006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信宇顧問有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區民族路50巷46號3樓</t>
+  </si>
+  <si>
     <t>11:45:00</t>
   </si>
   <si>
@@ -237,9 +276,6 @@
   </si>
   <si>
     <t>T302800170</t>
-  </si>
-  <si>
-    <t>eS-3028A 黑白複合機</t>
   </si>
   <si>
     <t>新北市淡水區中正東路2段73號</t>
@@ -304,12 +340,21 @@
     <t>PMQ4 L90</t>
   </si>
   <si>
+    <t>13:20:00</t>
+  </si>
+  <si>
+    <t>THILF03811</t>
+  </si>
+  <si>
+    <t>新北市三重區仁安街2號</t>
+  </si>
+  <si>
+    <t>三重碧華公園</t>
+  </si>
+  <si>
     <t>2025-12-04</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>13:10:00</t>
   </si>
   <si>
@@ -325,18 +370,24 @@
     <t>裝潢回裝完成，使用中華電信</t>
   </si>
   <si>
-    <t>13:20:00</t>
-  </si>
-  <si>
     <t>13:50:00</t>
   </si>
   <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>THILF04101</t>
+  </si>
+  <si>
+    <t>新北市三重區溪尾街293號及295號</t>
+  </si>
+  <si>
+    <t>三重溪華店</t>
+  </si>
+  <si>
     <t>2025-12-02</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>THILF05410</t>
   </si>
   <si>
@@ -358,6 +409,18 @@
     <t>14:30:00</t>
   </si>
   <si>
+    <t>14:50:00</t>
+  </si>
+  <si>
+    <t>THILF0D057</t>
+  </si>
+  <si>
+    <t>新北市三重區溪尾街122號</t>
+  </si>
+  <si>
+    <t>北縣溪尾二店</t>
+  </si>
+  <si>
     <t>14:55:00</t>
   </si>
   <si>
@@ -382,12 +445,27 @@
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>T251000051</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沛盈實業有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路665號9樓</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
     <t>09:00:00</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>T252000025</t>
   </si>
   <si>
@@ -400,9 +478,6 @@
     <t>華固一莊</t>
   </si>
   <si>
-    <t>pm</t>
-  </si>
-  <si>
     <t>08:30:00</t>
   </si>
   <si>
@@ -433,6 +508,12 @@
     <t>三重</t>
   </si>
   <si>
+    <t>10:30:00</t>
+  </si>
+  <si>
+    <t>碳粉</t>
+  </si>
+  <si>
     <t>T252000113</t>
   </si>
   <si>
@@ -454,18 +535,39 @@
     <t>林口文化2F放款部</t>
   </si>
   <si>
-    <t>11:30:00</t>
-  </si>
-  <si>
-    <t>碳粉</t>
-  </si>
-  <si>
     <t>T252000136</t>
   </si>
   <si>
     <t>新北市三重區德厚街76號7樓</t>
   </si>
   <si>
+    <t>T252000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台固媒體股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服</t>
+  </si>
+  <si>
+    <t>新莊8F客服部</t>
+  </si>
+  <si>
+    <t>12:40:00</t>
+  </si>
+  <si>
+    <t>T301800026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永佳樂有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區美寧街57巷34號1樓(異地備援)</t>
+  </si>
+  <si>
+    <t>異地備援泰山</t>
+  </si>
+  <si>
     <t>T301800155</t>
   </si>
   <si>
@@ -478,9 +580,6 @@
     <t>三重湯城7樓(黑)</t>
   </si>
   <si>
-    <t>10:30:00</t>
-  </si>
-  <si>
     <t>T301800171</t>
   </si>
   <si>
@@ -499,6 +598,30 @@
     <t>板橋</t>
   </si>
   <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>T302800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財團法人台灣省私立台灣盲人重建院 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號3樓</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>T302800008</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號4樓</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
     <t>17:30:00</t>
   </si>
   <si>
@@ -511,15 +634,78 @@
     <t>新北市三重區捷運路32號</t>
   </si>
   <si>
+    <t>收款</t>
+  </si>
+  <si>
     <t>T302800123</t>
   </si>
   <si>
     <t>新北市三重區正義北路218號(三重分校)</t>
   </si>
   <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>T302800152</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(營管部)</t>
+  </si>
+  <si>
+    <t>營管部</t>
+  </si>
+  <si>
     <t>16:00:00</t>
   </si>
   <si>
+    <t>16:20:00</t>
+  </si>
+  <si>
+    <t>T302800153</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(走道)</t>
+  </si>
+  <si>
+    <t>走道</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>15:20:00</t>
+  </si>
+  <si>
+    <t>T302800154</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台2)</t>
+  </si>
+  <si>
+    <t>櫃台2</t>
+  </si>
+  <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>T302800155</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部2)</t>
+  </si>
+  <si>
+    <t>工程部2</t>
+  </si>
+  <si>
+    <t>T302800156</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(工程部1)</t>
+  </si>
+  <si>
+    <t>工程部1</t>
+  </si>
+  <si>
     <t>T351800045</t>
   </si>
   <si>
@@ -535,6 +721,45 @@
     <t>五股生鮮物流</t>
   </si>
   <si>
+    <t>T351800081</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服部)</t>
+  </si>
+  <si>
+    <t>新莊8F</t>
+  </si>
+  <si>
+    <t>T351800082</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(櫃台1)</t>
+  </si>
+  <si>
+    <t>櫃台1</t>
+  </si>
+  <si>
+    <t>16:40:00</t>
+  </si>
+  <si>
+    <t>T351800085</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路651-5號10樓(節目部)</t>
+  </si>
+  <si>
+    <t>節目部</t>
+  </si>
+  <si>
+    <t>T351800123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喬治費歇爾機械股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區興德路94號</t>
+  </si>
+  <si>
     <t>T352500148</t>
   </si>
   <si>
@@ -562,9 +787,6 @@
     <t>蘆洲北二處</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>15:30:00</t>
   </si>
   <si>
@@ -589,6 +811,9 @@
     <t>13:40:00</t>
   </si>
   <si>
+    <t>碳粉 上熱</t>
+  </si>
+  <si>
     <t>T352800031</t>
   </si>
   <si>
@@ -598,7 +823,7 @@
     <t>五股DC廠工商運輸</t>
   </si>
   <si>
-    <t>14:00:00</t>
+    <t>碳粉 OD 刮 回刮</t>
   </si>
   <si>
     <t>T352800032</t>
@@ -610,16 +835,31 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>T451800006</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凱擘股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-10號2樓</t>
+  </si>
+  <si>
     <t>T451800027</t>
   </si>
   <si>
-    <t>eS-4518A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市三重區重新路五段609巷2號4樓(客服)</t>
   </si>
   <si>
     <t>台北客服4F申裝查核處(黑)</t>
+  </si>
+  <si>
+    <t>T451800125</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊8F)</t>
   </si>
   <si>
     <t>T452800047</t>
@@ -1152,10 +1392,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A79" sqref="A79"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1383,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025120621</v>
+        <v>2025120620</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1420,14 +1660,16 @@
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3">
         <v>31731</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1435,21 +1677,17 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025120620</v>
+        <v>2025120621</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1486,16 +1724,14 @@
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
         <v>31731</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1503,9 +1739,11 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA5" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB5" s="7"/>
     </row>
     <row r="6" spans="1:28">
@@ -1550,7 +1788,7 @@
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -1567,7 +1805,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
@@ -1629,7 +1867,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA7" s="7" t="s">
         <v>41</v>
@@ -1680,7 +1918,7 @@
         <v>61</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1697,7 +1935,7 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>41</v>
@@ -1765,7 +2003,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>41</v>
@@ -1816,7 +2054,7 @@
         <v>30</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1833,7 +2071,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -1897,7 +2135,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
@@ -1909,7 +2147,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025120607</v>
+        <v>2025121143</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1921,41 +2159,43 @@
         <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>89329</v>
-      </c>
-      <c r="S12" s="3"/>
+        <v>72912</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1963,7 +2203,7 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
@@ -1977,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025120606</v>
+        <v>2025121144</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1989,43 +2229,41 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <v>89329</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>72912</v>
+      </c>
+      <c r="S13" s="7"/>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -2033,9 +2271,11 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA13" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB13" s="7"/>
     </row>
     <row r="14" spans="1:28">
@@ -2043,7 +2283,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025120683</v>
+        <v>2025121099</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2055,41 +2295,37 @@
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <v>2512</v>
-      </c>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>321332</v>
+        <v>30400</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>41</v>
@@ -2101,7 +2337,7 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
@@ -2115,7 +2351,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025120684</v>
+        <v>2025121100</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2127,41 +2363,37 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N15" s="8"/>
       <c r="O15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>2512</v>
-      </c>
+      <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>321332</v>
+        <v>30400</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -2171,7 +2403,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
@@ -2183,7 +2415,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025120542</v>
+        <v>2025120606</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2198,38 +2430,40 @@
         <v>42</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="L16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="N16" s="6" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>89329</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2237,21 +2471,17 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025120595</v>
+        <v>2025120607</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2266,36 +2496,38 @@
         <v>42</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+        <v>81</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="N17" s="8" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>89329</v>
+      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2303,7 +2535,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2315,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025120859</v>
+        <v>2025120683</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2327,47 +2559,53 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L18" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3">
+        <v>2512</v>
+      </c>
       <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>321332</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2381,7 +2619,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025120861</v>
+        <v>2025120684</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2393,39 +2631,43 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L19" s="8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="Q19" s="7">
+        <v>2512</v>
+      </c>
       <c r="R19" s="7">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>321332</v>
+      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2433,21 +2675,19 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025120404</v>
+        <v>2025120542</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2459,30 +2699,34 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="L20" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2490,16 +2734,14 @@
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
-      <c r="T20" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2513,7 +2755,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025120703</v>
+        <v>2025120595</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2525,41 +2767,39 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>81</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7"/>
+      <c r="S21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2567,21 +2807,19 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025120430</v>
+        <v>2025121151</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2593,47 +2831,47 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2647,7 +2885,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025120415</v>
+        <v>2025120859</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2659,34 +2897,30 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M23" s="8" t="s">
+      <c r="N23" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="O23" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2694,26 +2928,30 @@
         <v>0</v>
       </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB23" s="7"/>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025120646</v>
+        <v>2025120861</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2722,46 +2960,38 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="3">
-        <v>6965</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>15589</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>20840</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>41</v>
@@ -2773,7 +3003,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -2787,7 +3017,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025120647</v>
+        <v>2025121177</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2796,48 +3026,42 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="N25" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="7">
-        <v>6965</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>15589</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>20840</v>
-      </c>
-      <c r="S25" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2845,19 +3069,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025120644</v>
+        <v>2025120404</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2866,58 +3092,50 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="N26" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1921</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>2784</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>8923</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T26" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
@@ -2931,7 +3149,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025120645</v>
+        <v>2025120703</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2940,46 +3158,42 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="L27" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="N27" s="8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7">
-        <v>1921</v>
-      </c>
-      <c r="Q27" s="7">
-        <v>2784</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>8923</v>
+        <v>0</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2989,19 +3203,21 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB27" s="7"/>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025120325</v>
+        <v>2025121185</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3010,44 +3226,38 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="N28" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="O28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3">
-        <v>1100</v>
-      </c>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>41</v>
@@ -3059,7 +3269,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
@@ -3073,7 +3283,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025120326</v>
+        <v>2025120430</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3082,28 +3292,24 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="8" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>131</v>
@@ -3112,14 +3318,12 @@
         <v>132</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7">
-        <v>1100</v>
-      </c>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3127,21 +3331,25 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
+      <c r="Y29" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z29" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025120648</v>
+        <v>2025120415</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3150,50 +3358,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P30" s="3">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>967</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>4042</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3201,21 +3403,19 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025120649</v>
+        <v>2025121162</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3224,48 +3424,46 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>135</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N31" s="8"/>
       <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7">
-        <v>164</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7">
-        <v>967</v>
+        <v>2250</v>
       </c>
       <c r="R31" s="7">
-        <v>4042</v>
-      </c>
-      <c r="S31" s="7"/>
+        <v>45000</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3273,11 +3471,9 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA31" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA31" s="7"/>
       <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
@@ -3285,7 +3481,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025120173</v>
+        <v>2025121163</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3294,48 +3490,44 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>139</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="N32" s="6"/>
       <c r="O32" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3">
-        <v>1132</v>
+        <v>2250</v>
       </c>
       <c r="R32" s="3">
-        <v>64599</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
@@ -3343,9 +3535,11 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA32" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28">
@@ -3353,7 +3547,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025120174</v>
+        <v>2025120646</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3362,19 +3556,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>35</v>
@@ -3383,25 +3577,29 @@
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P33" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="P33" s="7">
+        <v>6965</v>
+      </c>
       <c r="Q33" s="7">
-        <v>1132</v>
+        <v>15589</v>
       </c>
       <c r="R33" s="7">
-        <v>64599</v>
-      </c>
-      <c r="S33" s="7"/>
+        <v>20840</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
@@ -3409,19 +3607,21 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB33" s="7"/>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025120836</v>
+        <v>2025120647</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3430,19 +3630,19 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>35</v>
@@ -3451,49 +3651,47 @@
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P34" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P34" s="3">
+        <v>6965</v>
+      </c>
       <c r="Q34" s="3">
-        <v>1132</v>
+        <v>15589</v>
       </c>
       <c r="R34" s="3">
-        <v>64599</v>
+        <v>20840</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB34" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025120675</v>
+        <v>2025120644</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3502,19 +3700,19 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>35</v>
@@ -3523,23 +3721,25 @@
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P35" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="P35" s="7">
+        <v>1921</v>
+      </c>
       <c r="Q35" s="7">
-        <v>101</v>
+        <v>2784</v>
       </c>
       <c r="R35" s="7">
-        <v>1564</v>
+        <v>8923</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>41</v>
@@ -3551,7 +3751,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -3565,7 +3765,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025120676</v>
+        <v>2025120645</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3574,19 +3774,19 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>35</v>
@@ -3595,23 +3795,25 @@
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P36" s="3"/>
+      <c r="P36" s="3">
+        <v>1921</v>
+      </c>
       <c r="Q36" s="3">
-        <v>101</v>
+        <v>2784</v>
       </c>
       <c r="R36" s="3">
-        <v>1564</v>
+        <v>8923</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3621,7 +3823,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
@@ -3633,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025120781</v>
+        <v>2025120325</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3642,42 +3844,44 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="7">
+        <v>1100</v>
+      </c>
       <c r="R37" s="7">
-        <v>898</v>
+        <v>16500</v>
       </c>
       <c r="S37" s="7" t="s">
         <v>41</v>
@@ -3689,17 +3893,21 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025120782</v>
+        <v>2025120326</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3708,42 +3916,44 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="3">
+        <v>1100</v>
+      </c>
       <c r="R38" s="3">
-        <v>898</v>
+        <v>16500</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3753,7 +3963,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -3765,7 +3975,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025120652</v>
+        <v>2025121158</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3774,54 +3984,56 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="Q39" s="7">
+        <v>1100</v>
+      </c>
       <c r="R39" s="7">
-        <v>49652</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>16500</v>
+      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
+      <c r="U39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -3835,7 +4047,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025120653</v>
+        <v>2025120648</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3844,44 +4056,50 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="P40" s="3">
+        <v>164</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>967</v>
+      </c>
       <c r="R40" s="3">
-        <v>49652</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>4042</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3889,19 +4107,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB40" s="3"/>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025120650</v>
+        <v>2025120649</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3910,46 +4130,48 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="P41" s="7">
+        <v>164</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>967</v>
+      </c>
       <c r="R41" s="7">
-        <v>81064</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>4042</v>
+      </c>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3957,21 +4179,19 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB41" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025120651</v>
+        <v>2025120173</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3980,44 +4200,48 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="3">
+        <v>1132</v>
+      </c>
       <c r="R42" s="3">
-        <v>81064</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>64599</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4025,11 +4249,9 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA42" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA42" s="3"/>
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28">
@@ -4037,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025120327</v>
+        <v>2025120174</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4046,44 +4268,46 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N43" s="8"/>
+        <v>165</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="O43" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="Q43" s="7">
+        <v>1132</v>
+      </c>
       <c r="R43" s="7">
-        <v>54000</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>64599</v>
+      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4091,21 +4315,19 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025120328</v>
+        <v>2025120836</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4114,62 +4336,70 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N44" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="O44" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="Q44" s="3">
+        <v>1132</v>
+      </c>
       <c r="R44" s="3">
-        <v>54000</v>
+        <v>64599</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
+      <c r="U44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB44" s="3"/>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025120668</v>
+        <v>2025120675</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4178,42 +4408,44 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="Q45" s="7">
+        <v>101</v>
+      </c>
       <c r="R45" s="7">
-        <v>4733</v>
+        <v>1564</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>41</v>
@@ -4225,7 +4457,7 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
@@ -4239,7 +4471,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025120669</v>
+        <v>2025120676</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4248,42 +4480,44 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="3">
+        <v>101</v>
+      </c>
       <c r="R46" s="3">
-        <v>4733</v>
+        <v>1564</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -4293,7 +4527,7 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>41</v>
@@ -4305,7 +4539,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025120183</v>
+        <v>2025121073</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4314,42 +4548,44 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="7">
+        <v>6326</v>
+      </c>
       <c r="R47" s="7">
-        <v>118324</v>
+        <v>2574</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>41</v>
@@ -4361,7 +4597,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA47" s="7"/>
       <c r="AB47" s="7"/>
@@ -4371,7 +4607,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025120184</v>
+        <v>2025121074</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4380,42 +4616,44 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="3">
+        <v>6326</v>
+      </c>
       <c r="R48" s="3">
-        <v>118324</v>
+        <v>2574</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4425,7 +4663,7 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -4437,7 +4675,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025120801</v>
+        <v>2025121238</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4446,48 +4684,44 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7"/>
-      <c r="Q49" s="7">
-        <v>11378</v>
-      </c>
+      <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>19096</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4495,7 +4729,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
@@ -4509,7 +4743,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025120802</v>
+        <v>2025121237</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4518,46 +4752,46 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P50" s="3"/>
-      <c r="Q50" s="3">
-        <v>11378</v>
-      </c>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>19096</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>905</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4565,7 +4799,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -4577,7 +4811,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025120670</v>
+        <v>2025120781</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4586,42 +4820,42 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>8206</v>
+        <v>898</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>41</v>
@@ -4633,7 +4867,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
@@ -4643,7 +4877,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025120671</v>
+        <v>2025120782</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4652,34 +4886,34 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
@@ -4687,7 +4921,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>8206</v>
+        <v>898</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4697,7 +4931,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
@@ -4709,7 +4943,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025120835</v>
+        <v>2025120652</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4718,54 +4952,54 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>8206</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>49652</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
-      <c r="U53" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U53" s="7"/>
       <c r="V53" s="7"/>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
@@ -4779,7 +5013,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025120179</v>
+        <v>2025120653</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4788,46 +5022,44 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>5431</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>49652</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4835,9 +5067,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA54" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
@@ -4845,7 +5079,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025120180</v>
+        <v>2025120650</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4854,44 +5088,46 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>5431</v>
-      </c>
-      <c r="S55" s="7"/>
+        <v>81064</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4899,19 +5135,21 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7"/>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025120177</v>
+        <v>2025120651</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4920,46 +5158,44 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>22407</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>81064</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -4967,9 +5203,11 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA56" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -4977,7 +5215,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025120178</v>
+        <v>2025121171</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4986,44 +5224,46 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>22407</v>
-      </c>
-      <c r="S57" s="7"/>
+        <v>164880</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5031,19 +5271,21 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7"/>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025121000</v>
+        <v>2025121172</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5052,68 +5294,64 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>22407</v>
+        <v>164880</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025120181</v>
+        <v>2025121173</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5122,42 +5360,42 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>56002</v>
+        <v>152718</v>
       </c>
       <c r="S59" s="7" t="s">
         <v>41</v>
@@ -5169,17 +5407,21 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA59" s="7"/>
-      <c r="AB59" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025120182</v>
+        <v>2025121174</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5188,34 +5430,34 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>40</v>
@@ -5223,7 +5465,7 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>56002</v>
+        <v>152718</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
@@ -5233,7 +5475,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
@@ -5245,7 +5487,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025120999</v>
+        <v>2025120327</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5254,54 +5496,52 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>187</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N61" s="8"/>
       <c r="O61" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>56002</v>
-      </c>
-      <c r="S61" s="7"/>
+        <v>54000</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T61" s="7"/>
-      <c r="U61" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U61" s="7"/>
       <c r="V61" s="7"/>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
@@ -5315,7 +5555,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025120175</v>
+        <v>2025120328</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5324,46 +5564,42 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>191</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N62" s="6"/>
       <c r="O62" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>37849</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>54000</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5371,9 +5607,11 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA62" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28">
@@ -5381,7 +5619,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025120176</v>
+        <v>2025121159</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5390,64 +5628,66 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>191</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N63" s="8"/>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>37849</v>
+        <v>54000</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
+      <c r="W63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB63" s="7"/>
+      <c r="AB63" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025121001</v>
+        <v>2025120668</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5456,54 +5696,54 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>37849</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>4733</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="3"/>
-      <c r="U64" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
@@ -5517,7 +5757,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025120779</v>
+        <v>2025120669</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5526,46 +5766,44 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>36</v>
-      </c>
-      <c r="S65" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>4733</v>
+      </c>
+      <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -5573,9 +5811,11 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA65" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
@@ -5583,7 +5823,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025120780</v>
+        <v>2025121233</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5592,44 +5832,46 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>193</v>
+        <v>70</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>36</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>12521</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5637,19 +5879,21 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3"/>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025120171</v>
+        <v>2025121234</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5658,46 +5902,44 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>102273</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>12521</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5705,9 +5947,11 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA67" s="7"/>
+        <v>142</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
@@ -5715,7 +5959,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025120172</v>
+        <v>2025121229</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5724,44 +5968,46 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>102273</v>
-      </c>
-      <c r="S68" s="3"/>
+        <v>14306</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -5769,19 +6015,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB68" s="3"/>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025120834</v>
+        <v>2025121230</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5790,68 +6038,64 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>102273</v>
+        <v>14306</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
-      <c r="U69" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U69" s="7"/>
       <c r="V69" s="7"/>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB69" s="7"/>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025120102</v>
+        <v>2025121223</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -5860,38 +6104,42 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>100</v>
+        <v>212</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L70" s="6" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>9161</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>41</v>
@@ -5901,11 +6149,9 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-      <c r="Y70" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>41</v>
@@ -5919,7 +6165,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025120099</v>
+        <v>2025121224</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -5928,66 +6174,64 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>43</v>
+        <v>212</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L71" s="8" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>0</v>
-      </c>
-      <c r="S71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>9161</v>
+      </c>
+      <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
-      <c r="Y71" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025120063</v>
+        <v>2025121227</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -5996,38 +6240,42 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L72" s="6" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>11592</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>41</v>
@@ -6037,11 +6285,9 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-      <c r="Y72" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
@@ -6055,7 +6301,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025120077</v>
+        <v>2025121228</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6064,66 +6310,64 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+        <v>218</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L73" s="8" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>0</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>11592</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
-      <c r="Y73" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB73" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB73" s="7"/>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025120061</v>
+        <v>2025121225</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6132,38 +6376,42 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L74" s="6" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>0</v>
+        <v>6992</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>41</v>
@@ -6173,11 +6421,9 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-      <c r="Y74" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
@@ -6191,7 +6437,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025120869</v>
+        <v>2025121226</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6200,42 +6446,42 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>0</v>
+        <v>6992</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -6245,21 +6491,19 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB75" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025120069</v>
+        <v>2025120183</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6268,38 +6512,42 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+        <v>224</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L76" s="6" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>118324</v>
       </c>
       <c r="S76" s="3" t="s">
         <v>41</v>
@@ -6309,25 +6557,19 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-      <c r="Y76" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB76" s="3">
-        <v>1</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="7">
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025120073</v>
+        <v>2025120184</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6336,24 +6578,28 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G77" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H77" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I77" s="7" t="s">
+      <c r="K77" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L77" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="M77" s="8" t="s">
         <v>227</v>
@@ -6362,40 +6608,34 @@
         <v>228</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>118324</v>
+      </c>
+      <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
-      <c r="Y77" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB77" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025120682</v>
+        <v>2025121071</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6404,44 +6644,46 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I78" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M78" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M78" s="6" t="s">
+      <c r="N78" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="N78" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="O78" s="3" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3"/>
+        <v>4538</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6449,47 +6691,2947 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2025121072</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7">
+        <v>4538</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2025121235</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M80" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="AA78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="9" t="s">
+      <c r="N80" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="AB79" s="9">
-        <v>36</v>
+      <c r="O80" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
+        <v>258</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2025121236</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <v>258</v>
+      </c>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2025121231</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
+        <v>2865</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2025121232</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <v>2865</v>
+      </c>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB83" s="7"/>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2025121166</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N84" s="6"/>
+      <c r="O84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
+        <v>146700</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2025121167</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="N85" s="8"/>
+      <c r="O85" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7">
+        <v>146700</v>
+      </c>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB85" s="7"/>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2025120801</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3">
+        <v>11378</v>
+      </c>
+      <c r="R86" s="3">
+        <v>19096</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2025120802</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7">
+        <v>11378</v>
+      </c>
+      <c r="R87" s="7">
+        <v>19096</v>
+      </c>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB87" s="7"/>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2025120670</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
+        <v>8206</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2025120671</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7">
+        <v>8206</v>
+      </c>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA89" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB89" s="7"/>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2025120835</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
+        <v>8206</v>
+      </c>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>2025120180</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7">
+        <v>5431</v>
+      </c>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2025120179</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
+        <v>5431</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>2025120177</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7">
+        <v>22407</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2025120178</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
+        <v>22407</v>
+      </c>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3"/>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2025121000</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7"/>
+      <c r="R95" s="7">
+        <v>22407</v>
+      </c>
+      <c r="S95" s="7"/>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2025121187</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3">
+        <v>22407</v>
+      </c>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z96" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
+        <v>2025120181</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7">
+        <v>56002</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2025120182</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3">
+        <v>56002</v>
+      </c>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3"/>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
+        <v>2025120999</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
+        <v>56002</v>
+      </c>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2025121186</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
+        <v>56002</v>
+      </c>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z100" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>2025120175</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7">
+        <v>37849</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7"/>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2025120176</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
+        <v>37849</v>
+      </c>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB102" s="3"/>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>2025121001</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7">
+        <v>37849</v>
+      </c>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2025121078</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3">
+        <v>3011</v>
+      </c>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2025121077</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7">
+        <v>3011</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7"/>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2025120779</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
+        <v>36</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7">
+        <v>2025120780</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7">
+        <v>36</v>
+      </c>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB107" s="7"/>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2025121075</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3">
+        <v>177</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2025121076</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7">
+        <v>177</v>
+      </c>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7"/>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB109" s="7"/>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2025120171</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3">
+        <v>102273</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2025120172</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7">
+        <v>102273</v>
+      </c>
+      <c r="S111" s="7"/>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2025120834</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3">
+        <v>102273</v>
+      </c>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>2025120102</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J113" s="7"/>
+      <c r="K113" s="7"/>
+      <c r="L113" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z113" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2025120099</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3">
+        <v>0</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z114" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>2025120063</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7"/>
+      <c r="L115" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7">
+        <v>0</v>
+      </c>
+      <c r="S115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7"/>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z115" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2025120077</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z116" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2025120061</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J117" s="7"/>
+      <c r="K117" s="7"/>
+      <c r="L117" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7">
+        <v>0</v>
+      </c>
+      <c r="S117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z117" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2025120869</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3">
+        <v>0</v>
+      </c>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2025120069</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7">
+        <v>0</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z119" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB119" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2025120073</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3">
+        <v>0</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z120" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>2025120682</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7">
+        <v>0</v>
+      </c>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7"/>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
+      <c r="Z122" s="10"/>
+      <c r="AA122" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB122" s="9">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202512_Service_Count_Report.xlsx
+++ b/IM/202512_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$167</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
   <si>
     <t>服務次數統計表        篩選月份：202512</t>
   </si>
@@ -466,12 +466,12 @@
     <t>09:55:00</t>
   </si>
   <si>
+    <t>急修件</t>
+  </si>
+  <si>
     <t>電源重啟，測試清帳後清帳條列印正常</t>
   </si>
   <si>
-    <t>急修件</t>
-  </si>
-  <si>
     <t>12:20:00</t>
   </si>
   <si>
@@ -626,6 +626,24 @@
   </si>
   <si>
     <t>更換錢櫃線頭</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>18:51:00</t>
+  </si>
+  <si>
+    <t>THILF05428</t>
+  </si>
+  <si>
+    <t>新北市三重區榖保街83號1樓</t>
+  </si>
+  <si>
+    <t>三重野球魂</t>
+  </si>
+  <si>
+    <t>更換第一顆硬碟不備份還原完成</t>
   </si>
   <si>
     <t>THILF0D057</t>
@@ -756,9 +774,6 @@
   </si>
   <si>
     <t>16:30:00</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
   </si>
   <si>
     <t>T252000102</t>
@@ -1250,6 +1265,28 @@
 備用碳粉 1</t>
   </si>
   <si>
+    <t>2025-12-11</t>
+  </si>
+  <si>
+    <t>11:26:00</t>
+  </si>
+  <si>
+    <t>11:56:00</t>
+  </si>
+  <si>
+    <t>已另結案
+2025121649</t>
+  </si>
+  <si>
+    <t>THILF02221</t>
+  </si>
+  <si>
+    <t>新北市板橋區雙十路三段12、14、16號</t>
+  </si>
+  <si>
+    <t>板橋雙十店</t>
+  </si>
+  <si>
     <t>14:10:00</t>
   </si>
   <si>
@@ -1275,6 +1312,18 @@
   </si>
   <si>
     <t>北縣板億店</t>
+  </si>
+  <si>
+    <t>10:45:00</t>
+  </si>
+  <si>
+    <t>THILF02746</t>
+  </si>
+  <si>
+    <t>新北市板橋區雙十路三段29號</t>
+  </si>
+  <si>
+    <t>板橋板嘉店</t>
   </si>
   <si>
     <t>16:15:00</t>
@@ -1825,10 +1874,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB167"/>
+  <dimension ref="A1:AB171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A167" sqref="A167"/>
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4064,7 +4113,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025121332</v>
+        <v>2025121362</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -4088,7 +4137,7 @@
         <v>138</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>131</v>
@@ -4118,7 +4167,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
@@ -4130,7 +4179,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025121362</v>
+        <v>2025121332</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -4154,7 +4203,7 @@
         <v>138</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>131</v>
@@ -4184,7 +4233,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -5120,7 +5169,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025121185</v>
+        <v>2025121763</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -5132,39 +5181,41 @@
         <v>30</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+        <v>200</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L50" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
         <v>0</v>
       </c>
-      <c r="S50" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -5172,7 +5223,7 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
@@ -5186,7 +5237,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025121484</v>
+        <v>2025121185</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -5198,41 +5249,39 @@
         <v>30</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
       <c r="L51" s="8" t="s">
         <v>107</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
         <v>0</v>
       </c>
-      <c r="S51" s="7"/>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -5240,7 +5289,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
@@ -5254,7 +5303,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025121483</v>
+        <v>2025121484</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -5269,13 +5318,13 @@
         <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>130</v>
@@ -5287,10 +5336,10 @@
         <v>107</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>134</v>
@@ -5308,19 +5357,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025121432</v>
+        <v>2025121483</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5332,39 +5383,41 @@
         <v>30</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="J53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="L53" s="8" t="s">
         <v>107</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
         <v>0</v>
       </c>
-      <c r="S53" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5372,21 +5425,19 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025121389</v>
+        <v>2025121432</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5401,13 +5452,13 @@
         <v>103</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -5415,10 +5466,10 @@
         <v>107</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>40</v>
@@ -5452,7 +5503,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025120430</v>
+        <v>2025121389</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5464,16 +5515,16 @@
         <v>30</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
@@ -5481,10 +5532,10 @@
         <v>107</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>40</v>
@@ -5494,17 +5545,17 @@
       <c r="R55" s="7">
         <v>0</v>
       </c>
-      <c r="S55" s="7"/>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
-      <c r="Y55" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
@@ -5518,7 +5569,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025120415</v>
+        <v>2025120430</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5533,31 +5584,27 @@
         <v>192</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
       <c r="L56" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -5570,21 +5617,25 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
+      <c r="Y56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z56" s="6" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB56" s="3"/>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025121328</v>
+        <v>2025120415</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5596,19 +5647,19 @@
         <v>30</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="H57" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I57" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>213</v>
-      </c>
       <c r="J57" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>131</v>
@@ -5617,10 +5668,10 @@
         <v>107</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>134</v>
@@ -5638,21 +5689,19 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025121327</v>
+        <v>2025121328</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5664,19 +5713,19 @@
         <v>30</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>131</v>
@@ -5685,10 +5734,10 @@
         <v>107</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>134</v>
@@ -5706,19 +5755,21 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="3"/>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025121163</v>
+        <v>2025121327</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5727,42 +5778,42 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="G59" s="7" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="N59" s="8"/>
+        <v>220</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>221</v>
+      </c>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>134</v>
       </c>
       <c r="P59" s="7"/>
-      <c r="Q59" s="7">
-        <v>2250</v>
-      </c>
+      <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5772,14 +5823,12 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB59" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
@@ -5795,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>77</v>
@@ -5807,19 +5856,19 @@
         <v>94</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="N60" s="6"/>
       <c r="O60" s="3" t="s">
@@ -5842,7 +5891,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
@@ -5852,7 +5901,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025120646</v>
+        <v>2025121163</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5861,50 +5910,44 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>231</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="N61" s="8" t="s">
         <v>234</v>
       </c>
+      <c r="N61" s="8"/>
       <c r="O61" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P61" s="7">
-        <v>6965</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P61" s="7"/>
       <c r="Q61" s="7">
-        <v>15589</v>
+        <v>2250</v>
       </c>
       <c r="R61" s="7">
-        <v>20840</v>
-      </c>
-      <c r="S61" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>45000</v>
+      </c>
+      <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -5912,21 +5955,19 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025120647</v>
+        <v>2025120646</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5935,19 +5976,19 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>35</v>
@@ -5956,16 +5997,16 @@
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3">
         <v>6965</v>
@@ -5976,7 +6017,9 @@
       <c r="R62" s="3">
         <v>20840</v>
       </c>
-      <c r="S62" s="3"/>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5984,19 +6027,21 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB62" s="3"/>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025120644</v>
+        <v>2025120647</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -6005,19 +6050,19 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>35</v>
@@ -6026,29 +6071,27 @@
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P63" s="7">
-        <v>1921</v>
+        <v>6965</v>
       </c>
       <c r="Q63" s="7">
-        <v>2784</v>
+        <v>15589</v>
       </c>
       <c r="R63" s="7">
-        <v>8923</v>
-      </c>
-      <c r="S63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>20840</v>
+      </c>
+      <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -6056,14 +6099,12 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB63" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
@@ -6079,19 +6120,19 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>35</v>
@@ -6100,13 +6141,13 @@
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>43</v>
@@ -6128,19 +6169,21 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB64" s="3"/>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025120325</v>
+        <v>2025120644</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -6149,19 +6192,19 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>35</v>
@@ -6170,7 +6213,7 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M65" s="8" t="s">
         <v>243</v>
@@ -6181,12 +6224,14 @@
       <c r="O65" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P65" s="7"/>
+      <c r="P65" s="7">
+        <v>1921</v>
+      </c>
       <c r="Q65" s="7">
-        <v>1100</v>
+        <v>2784</v>
       </c>
       <c r="R65" s="7">
-        <v>16500</v>
+        <v>8923</v>
       </c>
       <c r="S65" s="7" t="s">
         <v>41</v>
@@ -6198,21 +6243,19 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB65" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025120326</v>
+        <v>2025120325</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -6221,19 +6264,19 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>35</v>
@@ -6242,16 +6285,16 @@
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3">
@@ -6260,7 +6303,9 @@
       <c r="R66" s="3">
         <v>16500</v>
       </c>
-      <c r="S66" s="3"/>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -6268,19 +6313,21 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3"/>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025121158</v>
+        <v>2025120326</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -6289,19 +6336,19 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>245</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>35</v>
@@ -6310,16 +6357,16 @@
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7">
@@ -6330,29 +6377,25 @@
       </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
-      <c r="U67" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U67" s="7"/>
       <c r="V67" s="7"/>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025120648</v>
+        <v>2025121158</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6361,19 +6404,19 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>35</v>
@@ -6382,7 +6425,7 @@
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M68" s="6" t="s">
         <v>248</v>
@@ -6393,26 +6436,24 @@
       <c r="O68" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P68" s="3">
-        <v>164</v>
-      </c>
+      <c r="P68" s="3"/>
       <c r="Q68" s="3">
-        <v>967</v>
+        <v>1100</v>
       </c>
       <c r="R68" s="3">
-        <v>4042</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>16500</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
+      <c r="U68" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
@@ -6426,7 +6467,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025120649</v>
+        <v>2025120648</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6435,7 +6476,7 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>51</v>
@@ -6447,7 +6488,7 @@
         <v>127</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>35</v>
@@ -6456,16 +6497,16 @@
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P69" s="7">
         <v>164</v>
@@ -6476,7 +6517,9 @@
       <c r="R69" s="7">
         <v>4042</v>
       </c>
-      <c r="S69" s="7"/>
+      <c r="S69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -6484,19 +6527,21 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7"/>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025120173</v>
+        <v>2025120649</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6505,19 +6550,19 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>35</v>
@@ -6526,27 +6571,27 @@
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P70" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P70" s="3">
+        <v>164</v>
+      </c>
       <c r="Q70" s="3">
-        <v>1132</v>
+        <v>967</v>
       </c>
       <c r="R70" s="3">
-        <v>64599</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>4042</v>
+      </c>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6554,9 +6599,11 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA70" s="3"/>
+        <v>235</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
@@ -6564,7 +6611,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025120174</v>
+        <v>2025120173</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6573,19 +6620,19 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>35</v>
@@ -6594,16 +6641,16 @@
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7">
@@ -6612,7 +6659,9 @@
       <c r="R71" s="7">
         <v>64599</v>
       </c>
-      <c r="S71" s="7"/>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6620,11 +6669,9 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA71" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
     <row r="72" spans="1:28">
@@ -6632,7 +6679,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025120836</v>
+        <v>2025120174</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6641,19 +6688,19 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>186</v>
+        <v>236</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>35</v>
@@ -6662,16 +6709,16 @@
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3">
@@ -6682,29 +6729,25 @@
       </c>
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
-      <c r="U72" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025120675</v>
+        <v>2025120836</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6713,19 +6756,19 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>35</v>
@@ -6734,35 +6777,35 @@
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7">
-        <v>101</v>
+        <v>1132</v>
       </c>
       <c r="R73" s="7">
-        <v>1564</v>
-      </c>
-      <c r="S73" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>64599</v>
+      </c>
+      <c r="S73" s="7"/>
       <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
+      <c r="U73" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V73" s="7"/>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
@@ -6776,7 +6819,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025120676</v>
+        <v>2025120675</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6785,7 +6828,7 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>51</v>
@@ -6797,7 +6840,7 @@
         <v>160</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>35</v>
@@ -6809,13 +6852,13 @@
         <v>48</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3">
@@ -6824,7 +6867,9 @@
       <c r="R74" s="3">
         <v>1564</v>
       </c>
-      <c r="S74" s="3"/>
+      <c r="S74" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6832,19 +6877,21 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB74" s="3"/>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025121074</v>
+        <v>2025120676</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6853,19 +6900,19 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>35</v>
@@ -6874,23 +6921,23 @@
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7">
-        <v>6326</v>
+        <v>101</v>
       </c>
       <c r="R75" s="7">
-        <v>2574</v>
+        <v>1564</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -6900,14 +6947,12 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB75" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB75" s="7"/>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="3">
@@ -6923,19 +6968,19 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>35</v>
@@ -6944,13 +6989,13 @@
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>40</v>
@@ -6972,7 +7017,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA76" s="3"/>
       <c r="AB76" s="3"/>
@@ -6982,7 +7027,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025121238</v>
+        <v>2025121074</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6991,22 +7036,22 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>261</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
@@ -7024,9 +7069,11 @@
         <v>43</v>
       </c>
       <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
+      <c r="Q77" s="7">
+        <v>6326</v>
+      </c>
       <c r="R77" s="7">
-        <v>905</v>
+        <v>2574</v>
       </c>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
@@ -7036,21 +7083,19 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB77" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB77" s="7"/>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025121237</v>
+        <v>2025121238</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -7059,19 +7104,19 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>61</v>
@@ -7080,25 +7125,23 @@
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
         <v>905</v>
       </c>
-      <c r="S78" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S78" s="3"/>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -7106,19 +7149,21 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA78" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB78" s="3"/>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025121280</v>
+        <v>2025121237</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -7127,19 +7172,19 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>61</v>
@@ -7148,13 +7193,13 @@
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>40</v>
@@ -7162,33 +7207,31 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>140764</v>
-      </c>
-      <c r="S79" s="7"/>
+        <v>905</v>
+      </c>
+      <c r="S79" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
-      <c r="Y79" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB79" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="1:28">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025120781</v>
+        <v>2025121280</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -7197,16 +7240,16 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>270</v>
@@ -7232,29 +7275,33 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>898</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>140764</v>
+      </c>
+      <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
+      <c r="Y80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z80" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
+        <v>274</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025120782</v>
+        <v>2025120781</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -7263,19 +7310,19 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>150</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>61</v>
@@ -7284,23 +7331,25 @@
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
         <v>898</v>
       </c>
-      <c r="S81" s="7"/>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -7308,11 +7357,9 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA81" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -7320,7 +7367,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025120652</v>
+        <v>2025120782</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7329,19 +7376,19 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>61</v>
@@ -7350,25 +7397,23 @@
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>70</v>
+        <v>276</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>49652</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>898</v>
+      </c>
+      <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -7376,21 +7421,19 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB82" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025120653</v>
+        <v>2025120652</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7399,19 +7442,19 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H83" s="7" t="s">
         <v>78</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>61</v>
@@ -7423,20 +7466,22 @@
         <v>70</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
         <v>49652</v>
       </c>
-      <c r="S83" s="7"/>
+      <c r="S83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -7444,19 +7489,21 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB83" s="7"/>
+      <c r="AB83" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025120650</v>
+        <v>2025120653</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7465,19 +7512,19 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>61</v>
@@ -7489,22 +7536,20 @@
         <v>70</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>81064</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>49652</v>
+      </c>
+      <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7512,21 +7557,19 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025120651</v>
+        <v>2025120650</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7535,7 +7578,7 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>51</v>
@@ -7544,10 +7587,10 @@
         <v>127</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>61</v>
@@ -7559,20 +7602,22 @@
         <v>70</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
         <v>81064</v>
       </c>
-      <c r="S85" s="7"/>
+      <c r="S85" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7580,19 +7625,21 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7"/>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025121171</v>
+        <v>2025120651</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7601,46 +7648,44 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>58</v>
+        <v>250</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>281</v>
+        <v>70</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>164880</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>81064</v>
+      </c>
+      <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -7648,21 +7693,19 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025121172</v>
+        <v>2025121171</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7671,7 +7714,7 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>77</v>
@@ -7683,7 +7726,7 @@
         <v>58</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>81</v>
@@ -7692,23 +7735,25 @@
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
         <v>164880</v>
       </c>
-      <c r="S87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7716,19 +7761,21 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB87" s="7"/>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025121173</v>
+        <v>2025121172</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7737,19 +7784,19 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G88" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="I88" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>81</v>
@@ -7758,25 +7805,23 @@
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>152718</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>164880</v>
+      </c>
+      <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7784,21 +7829,19 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB88" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025121174</v>
+        <v>2025121173</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7807,7 +7850,7 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>77</v>
@@ -7819,7 +7862,7 @@
         <v>164</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>81</v>
@@ -7828,23 +7871,25 @@
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
         <v>152718</v>
       </c>
-      <c r="S89" s="7"/>
+      <c r="S89" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -7852,19 +7897,21 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB89" s="7"/>
+      <c r="AB89" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025120327</v>
+        <v>2025121174</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7873,19 +7920,19 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>287</v>
+        <v>164</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>81</v>
@@ -7894,23 +7941,23 @@
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M90" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="N90" s="6"/>
+      <c r="N90" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="O90" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>54000</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>152718</v>
+      </c>
+      <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7918,21 +7965,19 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB90" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025120328</v>
+        <v>2025120327</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7941,19 +7986,19 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>81</v>
@@ -7962,21 +8007,23 @@
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N91" s="8"/>
       <c r="O91" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
         <v>54000</v>
       </c>
-      <c r="S91" s="7"/>
+      <c r="S91" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -7984,19 +8031,21 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB91" s="7"/>
+      <c r="AB91" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025121159</v>
+        <v>2025120328</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -8005,19 +8054,19 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>81</v>
@@ -8026,14 +8075,14 @@
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N92" s="6"/>
       <c r="O92" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
@@ -8044,27 +8093,23 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="W92" s="3"/>
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>291</v>
+        <v>235</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB92" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025120668</v>
+        <v>2025121159</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -8073,10 +8118,10 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>78</v>
@@ -8085,7 +8130,7 @@
         <v>186</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>81</v>
@@ -8094,33 +8139,31 @@
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N93" s="8" t="s">
-        <v>244</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N93" s="8"/>
       <c r="O93" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>4733</v>
-      </c>
-      <c r="S93" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>54000</v>
+      </c>
+      <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
+      <c r="W93" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>229</v>
+        <v>296</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
@@ -8134,7 +8177,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025120669</v>
+        <v>2025120668</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -8143,7 +8186,7 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>51</v>
@@ -8155,7 +8198,7 @@
         <v>186</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>81</v>
@@ -8167,20 +8210,22 @@
         <v>70</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3">
         <v>4733</v>
       </c>
-      <c r="S94" s="3"/>
+      <c r="S94" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
@@ -8188,19 +8233,21 @@
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB94" s="3"/>
+      <c r="AB94" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025121233</v>
+        <v>2025120669</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -8209,19 +8256,19 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="J95" s="7" t="s">
         <v>81</v>
@@ -8230,25 +8277,23 @@
         <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7">
-        <v>12521</v>
-      </c>
-      <c r="S95" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>4733</v>
+      </c>
+      <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
       <c r="V95" s="7"/>
@@ -8256,21 +8301,19 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA95" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB95" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025121234</v>
+        <v>2025121233</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -8279,7 +8322,7 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>77</v>
@@ -8291,7 +8334,7 @@
         <v>146</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>81</v>
@@ -8300,23 +8343,25 @@
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
         <v>12521</v>
       </c>
-      <c r="S96" s="3"/>
+      <c r="S96" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -8324,19 +8369,21 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA96" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB96" s="3"/>
+      <c r="AB96" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:28">
       <c r="A97" s="7">
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025121229</v>
+        <v>2025121234</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8345,16 +8392,16 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>297</v>
+        <v>94</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="I97" s="7" t="s">
         <v>299</v>
@@ -8366,7 +8413,7 @@
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M97" s="8" t="s">
         <v>300</v>
@@ -8375,16 +8422,14 @@
         <v>301</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>14306</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>12521</v>
+      </c>
+      <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -8392,21 +8437,19 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA97" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB97" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB97" s="7"/>
     </row>
     <row r="98" spans="1:28">
       <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025121230</v>
+        <v>2025121229</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8415,19 +8458,19 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>81</v>
@@ -8436,23 +8479,25 @@
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
         <v>14306</v>
       </c>
-      <c r="S98" s="3"/>
+      <c r="S98" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -8460,19 +8505,21 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB98" s="3"/>
+      <c r="AB98" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="7">
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025121223</v>
+        <v>2025121230</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8481,7 +8528,7 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F99" s="7" t="s">
         <v>77</v>
@@ -8502,7 +8549,7 @@
         <v>36</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M99" s="8" t="s">
         <v>305</v>
@@ -8511,16 +8558,14 @@
         <v>306</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>9161</v>
-      </c>
-      <c r="S99" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>14306</v>
+      </c>
+      <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
@@ -8528,21 +8573,19 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA99" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB99" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB99" s="7"/>
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025121224</v>
+        <v>2025121223</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8551,19 +8594,19 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>81</v>
@@ -8572,23 +8615,25 @@
         <v>36</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
         <v>9161</v>
       </c>
-      <c r="S100" s="3"/>
+      <c r="S100" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
@@ -8596,19 +8641,21 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB100" s="3"/>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025121227</v>
+        <v>2025121224</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8617,7 +8664,7 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>77</v>
@@ -8626,10 +8673,10 @@
         <v>307</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J101" s="7" t="s">
         <v>81</v>
@@ -8638,25 +8685,23 @@
         <v>36</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>11592</v>
-      </c>
-      <c r="S101" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>9161</v>
+      </c>
+      <c r="S101" s="7"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
       <c r="V101" s="7"/>
@@ -8664,21 +8709,19 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA101" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB101" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB101" s="7"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025121228</v>
+        <v>2025121227</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8687,19 +8730,19 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>81</v>
@@ -8708,23 +8751,25 @@
         <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
         <v>11592</v>
       </c>
-      <c r="S102" s="3"/>
+      <c r="S102" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
@@ -8732,19 +8777,21 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB102" s="3"/>
+      <c r="AB102" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025121225</v>
+        <v>2025121228</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8753,19 +8800,19 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J103" s="7" t="s">
         <v>81</v>
@@ -8774,25 +8821,23 @@
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>6992</v>
-      </c>
-      <c r="S103" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>11592</v>
+      </c>
+      <c r="S103" s="7"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
@@ -8800,21 +8845,19 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA103" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB103" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB103" s="7"/>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025121226</v>
+        <v>2025121225</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8823,19 +8866,19 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>81</v>
@@ -8844,23 +8887,25 @@
         <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
         <v>6992</v>
       </c>
-      <c r="S104" s="3"/>
+      <c r="S104" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -8868,19 +8913,21 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB104" s="3"/>
+      <c r="AB104" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="7">
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025120183</v>
+        <v>2025121226</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8889,28 +8936,28 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>315</v>
+        <v>81</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>316</v>
+        <v>267</v>
       </c>
       <c r="M105" s="8" t="s">
         <v>317</v>
@@ -8919,16 +8966,14 @@
         <v>318</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>118324</v>
-      </c>
-      <c r="S105" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>6992</v>
+      </c>
+      <c r="S105" s="7"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
@@ -8936,9 +8981,11 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA105" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="AA105" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="1:28">
@@ -8946,7 +8993,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025120184</v>
+        <v>2025120183</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8955,44 +9002,46 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
         <v>118324</v>
       </c>
-      <c r="S106" s="3"/>
+      <c r="S106" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
@@ -9000,11 +9049,9 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA106" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
     <row r="107" spans="1:28">
@@ -9012,7 +9059,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025121071</v>
+        <v>2025120184</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -9021,46 +9068,44 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>319</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>4538</v>
-      </c>
-      <c r="S107" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>118324</v>
+      </c>
+      <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -9068,9 +9113,11 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA107" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB107" s="7"/>
     </row>
     <row r="108" spans="1:28">
@@ -9078,7 +9125,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025121072</v>
+        <v>2025121071</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -9087,44 +9134,46 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
         <v>4538</v>
       </c>
-      <c r="S108" s="3"/>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -9132,11 +9181,9 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA108" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
     <row r="109" spans="1:28">
@@ -9144,7 +9191,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025121235</v>
+        <v>2025121072</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -9153,22 +9200,22 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>36</v>
@@ -9177,22 +9224,20 @@
         <v>262</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
-        <v>258</v>
-      </c>
-      <c r="S109" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>4538</v>
+      </c>
+      <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
@@ -9200,21 +9245,19 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB109" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB109" s="7"/>
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025121236</v>
+        <v>2025121235</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -9223,7 +9266,7 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>77</v>
@@ -9232,35 +9275,37 @@
         <v>146</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O110" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
         <v>258</v>
       </c>
-      <c r="S110" s="3"/>
+      <c r="S110" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -9268,19 +9313,21 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA110" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB110" s="3"/>
+      <c r="AB110" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="7">
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025121231</v>
+        <v>2025121236</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -9289,46 +9336,44 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7">
-        <v>2865</v>
-      </c>
-      <c r="S111" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
@@ -9336,21 +9381,19 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB111" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB111" s="7"/>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025121232</v>
+        <v>2025121231</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9359,44 +9402,46 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
         <v>2865</v>
       </c>
-      <c r="S112" s="3"/>
+      <c r="S112" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
@@ -9404,19 +9449,21 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB112" s="3"/>
+      <c r="AB112" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="7">
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025121166</v>
+        <v>2025121232</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9425,44 +9472,44 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="N113" s="8"/>
+        <v>332</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>333</v>
+      </c>
       <c r="O113" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7">
-        <v>146700</v>
-      </c>
-      <c r="S113" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>2865</v>
+      </c>
+      <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
@@ -9470,21 +9517,19 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA113" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB113" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB113" s="7"/>
     </row>
     <row r="114" spans="1:28">
       <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>2025121167</v>
+        <v>2025121166</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -9493,7 +9538,7 @@
         <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>77</v>
@@ -9505,30 +9550,32 @@
         <v>160</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N114" s="6"/>
       <c r="O114" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
         <v>146700</v>
       </c>
-      <c r="S114" s="3"/>
+      <c r="S114" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -9536,19 +9583,21 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA114" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB114" s="3"/>
+      <c r="AB114" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:28">
       <c r="A115" s="7">
         <v>113</v>
       </c>
       <c r="B115" s="7">
-        <v>2025120801</v>
+        <v>2025121167</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -9557,48 +9606,42 @@
         <v>29</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="N115" s="8" t="s">
-        <v>244</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N115" s="8"/>
       <c r="O115" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P115" s="7"/>
-      <c r="Q115" s="7">
-        <v>11378</v>
-      </c>
+      <c r="Q115" s="7"/>
       <c r="R115" s="7">
-        <v>19096</v>
-      </c>
-      <c r="S115" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>146700</v>
+      </c>
+      <c r="S115" s="7"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
       <c r="V115" s="7"/>
@@ -9606,21 +9649,19 @@
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA115" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB115" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB115" s="7"/>
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>2025120802</v>
+        <v>2025120801</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -9629,7 +9670,7 @@
         <v>29</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>150</v>
@@ -9638,28 +9679,28 @@
         <v>127</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O116" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P116" s="3"/>
       <c r="Q116" s="3">
@@ -9668,7 +9709,9 @@
       <c r="R116" s="3">
         <v>19096</v>
       </c>
-      <c r="S116" s="3"/>
+      <c r="S116" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
@@ -9676,19 +9719,21 @@
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AA116" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB116" s="3"/>
+      <c r="AB116" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="7">
         <v>115</v>
       </c>
       <c r="B117" s="7">
-        <v>2025120670</v>
+        <v>2025120802</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -9697,46 +9742,46 @@
         <v>29</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>94</v>
+        <v>250</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>340</v>
+        <v>249</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
+      <c r="Q117" s="7">
+        <v>11378</v>
+      </c>
       <c r="R117" s="7">
-        <v>8206</v>
-      </c>
-      <c r="S117" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>19096</v>
+      </c>
+      <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
       <c r="V117" s="7"/>
@@ -9744,9 +9789,11 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA117" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="AA117" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB117" s="7"/>
     </row>
     <row r="118" spans="1:28">
@@ -9754,7 +9801,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>2025120671</v>
+        <v>2025120670</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -9763,7 +9810,7 @@
         <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>51</v>
@@ -9775,32 +9822,34 @@
         <v>94</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3">
         <v>8206</v>
       </c>
-      <c r="S118" s="3"/>
+      <c r="S118" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
@@ -9808,11 +9857,9 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA118" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA118" s="3"/>
       <c r="AB118" s="3"/>
     </row>
     <row r="119" spans="1:28">
@@ -9820,7 +9867,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="7">
-        <v>2025120835</v>
+        <v>2025120671</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -9829,37 +9876,37 @@
         <v>29</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
@@ -9868,29 +9915,25 @@
       </c>
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
-      <c r="U119" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U119" s="7"/>
       <c r="V119" s="7"/>
       <c r="W119" s="7"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA119" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB119" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB119" s="7"/>
     </row>
     <row r="120" spans="1:28">
       <c r="A120" s="3">
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>2025120179</v>
+        <v>2025120835</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -9899,34 +9942,34 @@
         <v>29</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I120" s="3" t="s">
         <v>341</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>40</v>
@@ -9934,29 +9977,33 @@
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3">
-        <v>5431</v>
-      </c>
-      <c r="S120" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>8206</v>
+      </c>
+      <c r="S120" s="3"/>
       <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
+      <c r="U120" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
       <c r="Y120" s="3"/>
       <c r="Z120" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA120" s="3"/>
-      <c r="AB120" s="3"/>
+        <v>251</v>
+      </c>
+      <c r="AA120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:28">
       <c r="A121" s="7">
         <v>119</v>
       </c>
       <c r="B121" s="7">
-        <v>2025120180</v>
+        <v>2025120179</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -9965,44 +10012,46 @@
         <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F121" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>182</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7">
         <v>5431</v>
       </c>
-      <c r="S121" s="7"/>
+      <c r="S121" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
@@ -10010,11 +10059,9 @@
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA121" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA121" s="7"/>
       <c r="AB121" s="7"/>
     </row>
     <row r="122" spans="1:28">
@@ -10022,7 +10069,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>2025120177</v>
+        <v>2025120180</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -10031,46 +10078,44 @@
         <v>29</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>302</v>
+        <v>182</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
-        <v>22407</v>
-      </c>
-      <c r="S122" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>5431</v>
+      </c>
+      <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
@@ -10078,9 +10123,11 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA122" s="3"/>
+        <v>235</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB122" s="3"/>
     </row>
     <row r="123" spans="1:28">
@@ -10088,7 +10135,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="7">
-        <v>2025120178</v>
+        <v>2025120177</v>
       </c>
       <c r="C123" s="7">
         <v>1</v>
@@ -10097,7 +10144,7 @@
         <v>29</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F123" s="7" t="s">
         <v>44</v>
@@ -10106,35 +10153,37 @@
         <v>164</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I123" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J123" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7">
         <v>22407</v>
       </c>
-      <c r="S123" s="7"/>
+      <c r="S123" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
       <c r="V123" s="7"/>
@@ -10142,11 +10191,9 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA123" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA123" s="7"/>
       <c r="AB123" s="7"/>
     </row>
     <row r="124" spans="1:28">
@@ -10154,7 +10201,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>2025121000</v>
+        <v>2025120178</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -10163,37 +10210,37 @@
         <v>29</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
@@ -10202,29 +10249,25 @@
       </c>
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
-      <c r="U124" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U124" s="3"/>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA124" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB124" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB124" s="3"/>
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="B125" s="7">
-        <v>2025121187</v>
+        <v>2025121000</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -10233,34 +10276,34 @@
         <v>29</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="O125" s="7" t="s">
         <v>40</v>
@@ -10272,15 +10315,15 @@
       </c>
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
+      <c r="U125" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V125" s="7"/>
       <c r="W125" s="7"/>
       <c r="X125" s="7"/>
-      <c r="Y125" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y125" s="7"/>
       <c r="Z125" s="8" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="AA125" s="7" t="s">
         <v>41</v>
@@ -10294,7 +10337,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>2025120181</v>
+        <v>2025121187</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -10303,28 +10346,28 @@
         <v>29</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="I126" s="3" t="s">
         <v>349</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M126" s="6" t="s">
         <v>350</v>
@@ -10338,29 +10381,33 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
-        <v>56002</v>
-      </c>
-      <c r="S126" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>22407</v>
+      </c>
+      <c r="S126" s="3"/>
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
-      <c r="Y126" s="3"/>
+      <c r="Y126" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z126" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA126" s="3"/>
-      <c r="AB126" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="AA126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB126" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="7">
         <v>125</v>
       </c>
       <c r="B127" s="7">
-        <v>2025120182</v>
+        <v>2025120181</v>
       </c>
       <c r="C127" s="7">
         <v>1</v>
@@ -10369,7 +10416,7 @@
         <v>29</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F127" s="7" t="s">
         <v>44</v>
@@ -10378,35 +10425,37 @@
         <v>182</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I127" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7">
         <v>56002</v>
       </c>
-      <c r="S127" s="7"/>
+      <c r="S127" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
       <c r="V127" s="7"/>
@@ -10414,11 +10463,9 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA127" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA127" s="7"/>
       <c r="AB127" s="7"/>
     </row>
     <row r="128" spans="1:28">
@@ -10426,7 +10473,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>2025120999</v>
+        <v>2025120182</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -10435,37 +10482,37 @@
         <v>29</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K128" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
@@ -10474,29 +10521,25 @@
       </c>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
-      <c r="U128" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U128" s="3"/>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA128" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB128" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB128" s="3"/>
     </row>
     <row r="129" spans="1:28">
       <c r="A129" s="7">
         <v>127</v>
       </c>
       <c r="B129" s="7">
-        <v>2025121186</v>
+        <v>2025120999</v>
       </c>
       <c r="C129" s="7">
         <v>1</v>
@@ -10505,34 +10548,34 @@
         <v>29</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J129" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K129" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="O129" s="7" t="s">
         <v>40</v>
@@ -10544,15 +10587,15 @@
       </c>
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
+      <c r="U129" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V129" s="7"/>
       <c r="W129" s="7"/>
       <c r="X129" s="7"/>
-      <c r="Y129" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y129" s="7"/>
       <c r="Z129" s="8" t="s">
-        <v>352</v>
+        <v>251</v>
       </c>
       <c r="AA129" s="7" t="s">
         <v>41</v>
@@ -10566,7 +10609,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>2025120175</v>
+        <v>2025121186</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -10575,10 +10618,10 @@
         <v>29</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>58</v>
@@ -10587,22 +10630,22 @@
         <v>164</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K130" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>40</v>
@@ -10610,29 +10653,33 @@
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
       <c r="R130" s="3">
-        <v>37849</v>
-      </c>
-      <c r="S130" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>56002</v>
+      </c>
+      <c r="S130" s="3"/>
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
-      <c r="Y130" s="3"/>
+      <c r="Y130" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z130" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA130" s="3"/>
-      <c r="AB130" s="3"/>
+        <v>357</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB130" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:28">
       <c r="A131" s="7">
         <v>129</v>
       </c>
       <c r="B131" s="7">
-        <v>2025120176</v>
+        <v>2025120175</v>
       </c>
       <c r="C131" s="7">
         <v>1</v>
@@ -10641,7 +10688,7 @@
         <v>29</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F131" s="7" t="s">
         <v>44</v>
@@ -10653,32 +10700,34 @@
         <v>164</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="J131" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K131" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7">
         <v>37849</v>
       </c>
-      <c r="S131" s="7"/>
+      <c r="S131" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
       <c r="V131" s="7"/>
@@ -10686,11 +10735,9 @@
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA131" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA131" s="7"/>
       <c r="AB131" s="7"/>
     </row>
     <row r="132" spans="1:28">
@@ -10698,7 +10745,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>2025121001</v>
+        <v>2025120176</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -10707,37 +10754,37 @@
         <v>29</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>347</v>
+        <v>58</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="O132" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
@@ -10746,29 +10793,25 @@
       </c>
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
-      <c r="U132" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U132" s="3"/>
       <c r="V132" s="3"/>
       <c r="W132" s="3"/>
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="6" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA132" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB132" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB132" s="3"/>
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="7">
         <v>131</v>
       </c>
       <c r="B133" s="7">
-        <v>2025121077</v>
+        <v>2025121001</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
@@ -10777,34 +10820,34 @@
         <v>29</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>127</v>
+        <v>352</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J133" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="K133" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="M133" s="8" t="s">
         <v>359</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>276</v>
+        <v>360</v>
       </c>
       <c r="O133" s="7" t="s">
         <v>40</v>
@@ -10812,29 +10855,33 @@
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7">
-        <v>3011</v>
-      </c>
-      <c r="S133" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>37849</v>
+      </c>
+      <c r="S133" s="7"/>
       <c r="T133" s="7"/>
-      <c r="U133" s="7"/>
+      <c r="U133" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V133" s="7"/>
       <c r="W133" s="7"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA133" s="7"/>
-      <c r="AB133" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="AA133" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB133" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:28">
       <c r="A134" s="3">
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>2025121078</v>
+        <v>2025121077</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -10843,7 +10890,7 @@
         <v>29</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>77</v>
@@ -10852,35 +10899,37 @@
         <v>127</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O134" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
         <v>3011</v>
       </c>
-      <c r="S134" s="3"/>
+      <c r="S134" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
@@ -10888,11 +10937,9 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA134" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA134" s="3"/>
       <c r="AB134" s="3"/>
     </row>
     <row r="135" spans="1:28">
@@ -10900,7 +10947,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="7">
-        <v>2025120779</v>
+        <v>2025121078</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
@@ -10909,46 +10956,44 @@
         <v>29</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J135" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K135" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>271</v>
+        <v>363</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7">
-        <v>36</v>
-      </c>
-      <c r="S135" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3011</v>
+      </c>
+      <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
       <c r="V135" s="7"/>
@@ -10956,9 +11001,11 @@
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA135" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="AA135" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB135" s="7"/>
     </row>
     <row r="136" spans="1:28">
@@ -10966,7 +11013,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>2025120780</v>
+        <v>2025120779</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -10975,44 +11022,46 @@
         <v>29</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K136" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M136" s="6" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
       <c r="R136" s="3">
         <v>36</v>
       </c>
-      <c r="S136" s="3"/>
+      <c r="S136" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
@@ -11020,11 +11069,9 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA136" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA136" s="3"/>
       <c r="AB136" s="3"/>
     </row>
     <row r="137" spans="1:28">
@@ -11032,7 +11079,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="7">
-        <v>2025121075</v>
+        <v>2025120780</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
@@ -11041,46 +11088,44 @@
         <v>29</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="I137" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J137" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K137" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="7">
-        <v>177</v>
-      </c>
-      <c r="S137" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
       <c r="V137" s="7"/>
@@ -11088,9 +11133,11 @@
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA137" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="AA137" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB137" s="7"/>
     </row>
     <row r="138" spans="1:28">
@@ -11098,7 +11145,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3">
-        <v>2025121076</v>
+        <v>2025121075</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -11107,7 +11154,7 @@
         <v>29</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>77</v>
@@ -11119,32 +11166,34 @@
         <v>127</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K138" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M138" s="6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="N138" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O138" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
       <c r="R138" s="3">
         <v>177</v>
       </c>
-      <c r="S138" s="3"/>
+      <c r="S138" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
@@ -11152,11 +11201,9 @@
       <c r="X138" s="3"/>
       <c r="Y138" s="3"/>
       <c r="Z138" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA138" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA138" s="3"/>
       <c r="AB138" s="3"/>
     </row>
     <row r="139" spans="1:28">
@@ -11164,7 +11211,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="7">
-        <v>2025120171</v>
+        <v>2025121076</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
@@ -11173,46 +11220,44 @@
         <v>29</v>
       </c>
       <c r="E139" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>230</v>
+        <v>127</v>
       </c>
       <c r="I139" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J139" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K139" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
       <c r="R139" s="7">
-        <v>102273</v>
-      </c>
-      <c r="S139" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="S139" s="7"/>
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
       <c r="V139" s="7"/>
@@ -11220,9 +11265,11 @@
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
       <c r="Z139" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA139" s="7"/>
+        <v>235</v>
+      </c>
+      <c r="AA139" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB139" s="7"/>
     </row>
     <row r="140" spans="1:28">
@@ -11230,7 +11277,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3">
-        <v>2025120172</v>
+        <v>2025120171</v>
       </c>
       <c r="C140" s="3">
         <v>1</v>
@@ -11239,44 +11286,46 @@
         <v>29</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K140" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M140" s="6" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N140" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
       <c r="R140" s="3">
         <v>102273</v>
       </c>
-      <c r="S140" s="3"/>
+      <c r="S140" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T140" s="3"/>
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
@@ -11284,11 +11333,9 @@
       <c r="X140" s="3"/>
       <c r="Y140" s="3"/>
       <c r="Z140" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA140" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="AA140" s="3"/>
       <c r="AB140" s="3"/>
     </row>
     <row r="141" spans="1:28">
@@ -11296,7 +11343,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="7">
-        <v>2025120834</v>
+        <v>2025120172</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -11305,37 +11352,37 @@
         <v>29</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="I141" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="J141" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K141" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M141" s="8" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="N141" s="8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
@@ -11344,29 +11391,25 @@
       </c>
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
-      <c r="U141" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U141" s="7"/>
       <c r="V141" s="7"/>
       <c r="W141" s="7"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="8" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AA141" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB141" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB141" s="7"/>
     </row>
     <row r="142" spans="1:28">
       <c r="A142" s="3">
         <v>140</v>
       </c>
       <c r="B142" s="3">
-        <v>2025120102</v>
+        <v>2025120834</v>
       </c>
       <c r="C142" s="3">
         <v>1</v>
@@ -11375,30 +11418,34 @@
         <v>29</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L142" s="6" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="M142" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N142" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>40</v>
@@ -11406,21 +11453,19 @@
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
       <c r="R142" s="3">
-        <v>0</v>
-      </c>
-      <c r="S142" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>102273</v>
+      </c>
+      <c r="S142" s="3"/>
       <c r="T142" s="3"/>
-      <c r="U142" s="3"/>
+      <c r="U142" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V142" s="3"/>
       <c r="W142" s="3"/>
       <c r="X142" s="3"/>
-      <c r="Y142" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y142" s="3"/>
       <c r="Z142" s="6" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="AA142" s="3" t="s">
         <v>41</v>
@@ -11434,7 +11479,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="7">
-        <v>2025120099</v>
+        <v>2025120102</v>
       </c>
       <c r="C143" s="7">
         <v>1</v>
@@ -11443,19 +11488,19 @@
         <v>29</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F143" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G143" s="7" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I143" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
@@ -11463,10 +11508,10 @@
         <v>107</v>
       </c>
       <c r="M143" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N143" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="O143" s="7" t="s">
         <v>40</v>
@@ -11502,7 +11547,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3">
-        <v>2025120063</v>
+        <v>2025120099</v>
       </c>
       <c r="C144" s="3">
         <v>1</v>
@@ -11511,19 +11556,19 @@
         <v>29</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>375</v>
+        <v>160</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
@@ -11531,10 +11576,10 @@
         <v>107</v>
       </c>
       <c r="M144" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>40</v>
@@ -11570,7 +11615,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="7">
-        <v>2025120077</v>
+        <v>2025120063</v>
       </c>
       <c r="C145" s="7">
         <v>1</v>
@@ -11579,19 +11624,19 @@
         <v>29</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F145" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G145" s="7" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>187</v>
+        <v>380</v>
       </c>
       <c r="I145" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
@@ -11599,10 +11644,10 @@
         <v>107</v>
       </c>
       <c r="M145" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N145" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O145" s="7" t="s">
         <v>40</v>
@@ -11638,7 +11683,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="3">
-        <v>2025120061</v>
+        <v>2025120077</v>
       </c>
       <c r="C146" s="3">
         <v>1</v>
@@ -11647,19 +11692,19 @@
         <v>29</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
@@ -11667,10 +11712,10 @@
         <v>107</v>
       </c>
       <c r="M146" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>40</v>
@@ -11706,7 +11751,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="7">
-        <v>2025120869</v>
+        <v>2025120061</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
@@ -11715,52 +11760,52 @@
         <v>29</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="G147" s="7" t="s">
-        <v>302</v>
+        <v>127</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="I147" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="J147" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K147" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
       <c r="L147" s="8" t="s">
         <v>107</v>
       </c>
       <c r="M147" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N147" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
       <c r="R147" s="7">
         <v>0</v>
       </c>
-      <c r="S147" s="7"/>
+      <c r="S147" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T147" s="7"/>
       <c r="U147" s="7"/>
       <c r="V147" s="7"/>
       <c r="W147" s="7"/>
       <c r="X147" s="7"/>
-      <c r="Y147" s="7"/>
+      <c r="Y147" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="Z147" s="8" t="s">
-        <v>388</v>
+        <v>110</v>
       </c>
       <c r="AA147" s="7" t="s">
         <v>41</v>
@@ -11774,7 +11819,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="3">
-        <v>2025120069</v>
+        <v>2025120869</v>
       </c>
       <c r="C148" s="3">
         <v>1</v>
@@ -11783,52 +11828,52 @@
         <v>29</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
+        <v>390</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L148" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M148" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="3">
         <v>0</v>
       </c>
-      <c r="S148" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S148" s="3"/>
       <c r="T148" s="3"/>
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
       <c r="W148" s="3"/>
       <c r="X148" s="3"/>
-      <c r="Y148" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="Y148" s="3"/>
       <c r="Z148" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA148" s="3" t="s">
         <v>41</v>
@@ -11842,7 +11887,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="7">
-        <v>2025120073</v>
+        <v>2025120069</v>
       </c>
       <c r="C149" s="7">
         <v>1</v>
@@ -11851,16 +11896,16 @@
         <v>29</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F149" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="I149" s="7" t="s">
         <v>394</v>
@@ -11896,7 +11941,7 @@
         <v>41</v>
       </c>
       <c r="Z149" s="8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AA149" s="7" t="s">
         <v>41</v>
@@ -11910,7 +11955,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="3">
-        <v>2025121649</v>
+        <v>2025120073</v>
       </c>
       <c r="C150" s="3">
         <v>1</v>
@@ -11919,52 +11964,52 @@
         <v>29</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J150" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K150" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
       <c r="L150" s="6" t="s">
-        <v>251</v>
+        <v>107</v>
       </c>
       <c r="M150" s="6" t="s">
-        <v>252</v>
+        <v>400</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>253</v>
+        <v>401</v>
       </c>
       <c r="O150" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
       <c r="R150" s="3">
-        <v>109083</v>
-      </c>
-      <c r="S150" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T150" s="3"/>
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
       <c r="W150" s="3"/>
       <c r="X150" s="3"/>
-      <c r="Y150" s="3"/>
+      <c r="Y150" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="Z150" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA150" s="3" t="s">
         <v>41</v>
@@ -11978,7 +12023,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="7">
-        <v>2025121786</v>
+        <v>2025121649</v>
       </c>
       <c r="C151" s="7">
         <v>1</v>
@@ -11987,54 +12032,52 @@
         <v>29</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F151" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>168</v>
+        <v>402</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="I151" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J151" s="7" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="K151" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="N151" s="8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
       <c r="R151" s="7">
-        <v>151018</v>
+        <v>109083</v>
       </c>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
-      <c r="U151" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U151" s="7"/>
       <c r="V151" s="7"/>
       <c r="W151" s="7"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AA151" s="7" t="s">
         <v>41</v>
@@ -12048,7 +12091,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>2025121636</v>
+        <v>2025121786</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -12057,19 +12100,19 @@
         <v>29</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J152" s="3" t="s">
         <v>61</v>
@@ -12078,31 +12121,33 @@
         <v>36</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="M152" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3">
-        <v>81445</v>
+        <v>151018</v>
       </c>
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
-      <c r="U152" s="3"/>
+      <c r="U152" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V152" s="3"/>
       <c r="W152" s="3"/>
       <c r="X152" s="3"/>
       <c r="Y152" s="3"/>
       <c r="Z152" s="6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AA152" s="3" t="s">
         <v>41</v>
@@ -12116,7 +12161,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="7">
-        <v>2025121413</v>
+        <v>2025121636</v>
       </c>
       <c r="C153" s="7">
         <v>1</v>
@@ -12125,42 +12170,44 @@
         <v>29</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="G153" s="7" t="s">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I153" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="J153" s="7"/>
-      <c r="K153" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="J153" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K153" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L153" s="8" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="M153" s="8" t="s">
-        <v>406</v>
+        <v>283</v>
       </c>
       <c r="N153" s="8" t="s">
-        <v>407</v>
+        <v>284</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
       <c r="R153" s="7">
-        <v>0</v>
-      </c>
-      <c r="S153" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>81445</v>
+      </c>
+      <c r="S153" s="7"/>
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
@@ -12168,7 +12215,7 @@
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
       <c r="Z153" s="8" t="s">
-        <v>110</v>
+        <v>407</v>
       </c>
       <c r="AA153" s="7" t="s">
         <v>41</v>
@@ -12182,7 +12229,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="3">
-        <v>2025121431</v>
+        <v>2025121592</v>
       </c>
       <c r="C154" s="3">
         <v>1</v>
@@ -12191,42 +12238,44 @@
         <v>29</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>303</v>
+        <v>410</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="J154" s="3"/>
-      <c r="K154" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L154" s="6" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="O154" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
       <c r="R154" s="3">
-        <v>0</v>
-      </c>
-      <c r="S154" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>102273</v>
+      </c>
+      <c r="S154" s="3"/>
       <c r="T154" s="3"/>
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
@@ -12234,7 +12283,7 @@
       <c r="X154" s="3"/>
       <c r="Y154" s="3"/>
       <c r="Z154" s="6" t="s">
-        <v>110</v>
+        <v>411</v>
       </c>
       <c r="AA154" s="3" t="s">
         <v>41</v>
@@ -12248,7 +12297,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="7">
-        <v>2025121557</v>
+        <v>2025121887</v>
       </c>
       <c r="C155" s="7">
         <v>1</v>
@@ -12257,19 +12306,19 @@
         <v>29</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="H155" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I155" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
@@ -12277,10 +12326,10 @@
         <v>107</v>
       </c>
       <c r="M155" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="N155" s="8" t="s">
         <v>414</v>
-      </c>
-      <c r="N155" s="8" t="s">
-        <v>415</v>
       </c>
       <c r="O155" s="7" t="s">
         <v>40</v>
@@ -12314,7 +12363,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <v>2025121394</v>
+        <v>2025121413</v>
       </c>
       <c r="C156" s="3">
         <v>1</v>
@@ -12323,44 +12372,42 @@
         <v>29</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G156" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H156" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="I156" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="I156" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J156" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K156" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
       <c r="L156" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M156" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="N156" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="N156" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="O156" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
       <c r="R156" s="3">
         <v>0</v>
       </c>
-      <c r="S156" s="3"/>
+      <c r="S156" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T156" s="3"/>
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
@@ -12368,7 +12415,7 @@
       <c r="X156" s="3"/>
       <c r="Y156" s="3"/>
       <c r="Z156" s="6" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="AA156" s="3" t="s">
         <v>41</v>
@@ -12382,7 +12429,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="7">
-        <v>2025121347</v>
+        <v>2025121431</v>
       </c>
       <c r="C157" s="7">
         <v>1</v>
@@ -12391,44 +12438,42 @@
         <v>29</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F157" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="I157" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="J157" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K157" s="7" t="s">
-        <v>131</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
       <c r="L157" s="8" t="s">
         <v>107</v>
       </c>
       <c r="M157" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
       <c r="R157" s="7">
         <v>0</v>
       </c>
-      <c r="S157" s="7"/>
+      <c r="S157" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
       <c r="V157" s="7"/>
@@ -12436,19 +12481,21 @@
       <c r="X157" s="7"/>
       <c r="Y157" s="7"/>
       <c r="Z157" s="8" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="AA157" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB157" s="7"/>
+      <c r="AB157" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:28">
       <c r="A158" s="3">
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>2025121470</v>
+        <v>2025121884</v>
       </c>
       <c r="C158" s="3">
         <v>1</v>
@@ -12457,44 +12504,42 @@
         <v>29</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>116</v>
+        <v>408</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>94</v>
+        <v>424</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J158" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K158" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
       <c r="L158" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M158" s="6" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="O158" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
       <c r="R158" s="3">
         <v>0</v>
       </c>
-      <c r="S158" s="3"/>
+      <c r="S158" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T158" s="3"/>
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
@@ -12502,7 +12547,7 @@
       <c r="X158" s="3"/>
       <c r="Y158" s="3"/>
       <c r="Z158" s="6" t="s">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="AA158" s="3" t="s">
         <v>41</v>
@@ -12516,7 +12561,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="7">
-        <v>2025121764</v>
+        <v>2025121557</v>
       </c>
       <c r="C159" s="7">
         <v>1</v>
@@ -12525,19 +12570,19 @@
         <v>29</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>123</v>
+        <v>428</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="J159" s="7"/>
       <c r="K159" s="7"/>
@@ -12545,10 +12590,10 @@
         <v>107</v>
       </c>
       <c r="M159" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="N159" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O159" s="7" t="s">
         <v>40</v>
@@ -12582,7 +12627,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <v>2025121787</v>
+        <v>2025121394</v>
       </c>
       <c r="C160" s="3">
         <v>1</v>
@@ -12591,42 +12636,44 @@
         <v>29</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>122</v>
+        <v>433</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="J160" s="3"/>
-      <c r="K160" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L160" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M160" s="6" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="O160" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
       <c r="R160" s="3">
         <v>0</v>
       </c>
-      <c r="S160" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S160" s="3"/>
       <c r="T160" s="3"/>
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
@@ -12634,7 +12681,7 @@
       <c r="X160" s="3"/>
       <c r="Y160" s="3"/>
       <c r="Z160" s="6" t="s">
-        <v>110</v>
+        <v>437</v>
       </c>
       <c r="AA160" s="3" t="s">
         <v>41</v>
@@ -12648,7 +12695,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="7">
-        <v>2025121407</v>
+        <v>2025121347</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
@@ -12657,22 +12704,26 @@
         <v>29</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F161" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="I161" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="J161" s="7"/>
-      <c r="K161" s="7"/>
+      <c r="J161" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K161" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="L161" s="8" t="s">
         <v>107</v>
       </c>
@@ -12683,16 +12734,14 @@
         <v>436</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
       <c r="R161" s="7">
         <v>0</v>
       </c>
-      <c r="S161" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S161" s="7"/>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
       <c r="V161" s="7"/>
@@ -12700,21 +12749,19 @@
       <c r="X161" s="7"/>
       <c r="Y161" s="7"/>
       <c r="Z161" s="8" t="s">
-        <v>110</v>
+        <v>437</v>
       </c>
       <c r="AA161" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB161" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB161" s="7"/>
     </row>
     <row r="162" spans="1:28">
       <c r="A162" s="3">
         <v>160</v>
       </c>
       <c r="B162" s="3">
-        <v>2025121437</v>
+        <v>2025121470</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -12723,42 +12770,44 @@
         <v>29</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>437</v>
+        <v>308</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="J162" s="3"/>
-      <c r="K162" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="L162" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M162" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="O162" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
       <c r="R162" s="3">
         <v>0</v>
       </c>
-      <c r="S162" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S162" s="3"/>
       <c r="T162" s="3"/>
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
@@ -12766,7 +12815,7 @@
       <c r="X162" s="3"/>
       <c r="Y162" s="3"/>
       <c r="Z162" s="6" t="s">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="AA162" s="3" t="s">
         <v>41</v>
@@ -12780,7 +12829,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="7">
-        <v>2025121551</v>
+        <v>2025121764</v>
       </c>
       <c r="C163" s="7">
         <v>1</v>
@@ -12789,19 +12838,19 @@
         <v>29</v>
       </c>
       <c r="E163" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="G163" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I163" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="I163" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7"/>
@@ -12809,10 +12858,10 @@
         <v>107</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O163" s="7" t="s">
         <v>40</v>
@@ -12846,7 +12895,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="3">
-        <v>2025120682</v>
+        <v>2025121787</v>
       </c>
       <c r="C164" s="3">
         <v>1</v>
@@ -12855,44 +12904,42 @@
         <v>29</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>302</v>
+        <v>444</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="J164" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K164" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
       <c r="L164" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M164" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="N164" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="N164" s="6" t="s">
-        <v>448</v>
-      </c>
       <c r="O164" s="3" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
       <c r="R164" s="3">
         <v>0</v>
       </c>
-      <c r="S164" s="3"/>
+      <c r="S164" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T164" s="3"/>
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
@@ -12900,7 +12947,7 @@
       <c r="X164" s="3"/>
       <c r="Y164" s="3"/>
       <c r="Z164" s="6" t="s">
-        <v>449</v>
+        <v>110</v>
       </c>
       <c r="AA164" s="3" t="s">
         <v>41</v>
@@ -12914,7 +12961,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="7">
-        <v>2025121138</v>
+        <v>2025121407</v>
       </c>
       <c r="C165" s="7">
         <v>1</v>
@@ -12923,44 +12970,42 @@
         <v>29</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F165" s="7" t="s">
         <v>103</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="H165" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="I165" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="I165" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="J165" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="K165" s="7" t="s">
-        <v>131</v>
-      </c>
+      <c r="J165" s="7"/>
+      <c r="K165" s="7"/>
       <c r="L165" s="8" t="s">
         <v>107</v>
       </c>
       <c r="M165" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="N165" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="O165" s="7" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
       <c r="R165" s="7">
         <v>0</v>
       </c>
-      <c r="S165" s="7"/>
+      <c r="S165" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
@@ -12968,7 +13013,7 @@
       <c r="X165" s="7"/>
       <c r="Y165" s="7"/>
       <c r="Z165" s="8" t="s">
-        <v>421</v>
+        <v>110</v>
       </c>
       <c r="AA165" s="7" t="s">
         <v>41</v>
@@ -12982,7 +13027,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <v>2025121425</v>
+        <v>2025121437</v>
       </c>
       <c r="C166" s="3">
         <v>1</v>
@@ -12991,19 +13036,19 @@
         <v>29</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>451</v>
+        <v>182</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
@@ -13011,10 +13056,10 @@
         <v>107</v>
       </c>
       <c r="M166" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>40</v>
@@ -13044,37 +13089,305 @@
       </c>
     </row>
     <row r="167" spans="1:28">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9"/>
-      <c r="J167" s="9"/>
-      <c r="K167" s="9"/>
-      <c r="L167" s="10"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="10"/>
-      <c r="O167" s="9"/>
-      <c r="P167" s="9"/>
-      <c r="Q167" s="9"/>
-      <c r="R167" s="9"/>
-      <c r="S167" s="9"/>
-      <c r="T167" s="9"/>
-      <c r="U167" s="9"/>
-      <c r="V167" s="9"/>
-      <c r="W167" s="9"/>
-      <c r="X167" s="9"/>
-      <c r="Y167" s="9"/>
-      <c r="Z167" s="10"/>
-      <c r="AA167" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="AB167" s="9">
-        <v>93</v>
+      <c r="A167" s="7">
+        <v>165</v>
+      </c>
+      <c r="B167" s="7">
+        <v>2025121551</v>
+      </c>
+      <c r="C167" s="7">
+        <v>1</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="J167" s="7"/>
+      <c r="K167" s="7"/>
+      <c r="L167" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M167" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="N167" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="O167" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="7"/>
+      <c r="R167" s="7">
+        <v>0</v>
+      </c>
+      <c r="S167" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T167" s="7"/>
+      <c r="U167" s="7"/>
+      <c r="V167" s="7"/>
+      <c r="W167" s="7"/>
+      <c r="X167" s="7"/>
+      <c r="Y167" s="7"/>
+      <c r="Z167" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA167" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="3">
+        <v>2025120682</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L168" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M168" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="N168" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3">
+        <v>0</v>
+      </c>
+      <c r="S168" s="3"/>
+      <c r="T168" s="3"/>
+      <c r="U168" s="3"/>
+      <c r="V168" s="3"/>
+      <c r="W168" s="3"/>
+      <c r="X168" s="3"/>
+      <c r="Y168" s="3"/>
+      <c r="Z168" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA168" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
+      <c r="A169" s="7">
+        <v>167</v>
+      </c>
+      <c r="B169" s="7">
+        <v>2025121138</v>
+      </c>
+      <c r="C169" s="7">
+        <v>1</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="M169" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="O169" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7">
+        <v>0</v>
+      </c>
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+      <c r="U169" s="7"/>
+      <c r="V169" s="7"/>
+      <c r="W169" s="7"/>
+      <c r="X169" s="7"/>
+      <c r="Y169" s="7"/>
+      <c r="Z169" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA169" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <v>2025121425</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J170" s="3"/>
+      <c r="K170" s="3"/>
+      <c r="L170" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M170" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3">
+        <v>0</v>
+      </c>
+      <c r="S170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T170" s="3"/>
+      <c r="U170" s="3"/>
+      <c r="V170" s="3"/>
+      <c r="W170" s="3"/>
+      <c r="X170" s="3"/>
+      <c r="Y170" s="3"/>
+      <c r="Z170" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="9"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
+      <c r="U171" s="9"/>
+      <c r="V171" s="9"/>
+      <c r="W171" s="9"/>
+      <c r="X171" s="9"/>
+      <c r="Y171" s="9"/>
+      <c r="Z171" s="10"/>
+      <c r="AA171" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB171" s="9">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
